--- a/src/test/resources/Run_Manager_Full_Auction_Journey.xlsx
+++ b/src/test/resources/Run_Manager_Full_Auction_Journey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\SAKANI_NEW_TST\SAKANI_TST_R1_IBR\SAKANI_TST_R1\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\New_Sakani_TST_Git\Sakani_TST_New\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF50F942-AEB2-4A14-B507-18B22286E6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD9556-B96C-4C04-9246-D13A85945D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2148" windowWidth="18756" windowHeight="10092" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="641">
   <si>
     <t>P_Key</t>
   </si>
@@ -1202,9 +1202,6 @@
     <t>Create new Auction without fee from admin side</t>
   </si>
   <si>
-    <t>Verify user is able to click on view invoice link text</t>
-  </si>
-  <si>
     <t>Verify user is not able to access auction that already Expired/End</t>
   </si>
   <si>
@@ -1943,13 +1940,28 @@
     <t>https://test-sakani.housingapps.sa/en</t>
   </si>
   <si>
-    <t>Mazad</t>
-  </si>
-  <si>
     <t>Sign contract is not downloaded</t>
   </si>
   <si>
     <t>Need to execute later</t>
+  </si>
+  <si>
+    <t>Verify user is NOT able to click Confirm Rejection button if reject reason is not entered from  Reject Contract page</t>
+  </si>
+  <si>
+    <t>User bid the new auction</t>
+  </si>
+  <si>
+    <t>Verify the Sign Contract is Approved</t>
+  </si>
+  <si>
+    <t>Verify user is able to click on view invoice button</t>
+  </si>
+  <si>
+    <t>Verify user is able to click on view Acknowledgment link text</t>
+  </si>
+  <si>
+    <t>Mazad 00</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2063,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2202,6 +2214,12 @@
         <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2269,7 +2287,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2399,6 +2417,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2796,10 +2826,10 @@
   <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J141" sqref="J141"/>
+      <selection pane="bottomRight" activeCell="J145" sqref="J145:J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1"/>
@@ -2869,7 +2899,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="59" t="s">
@@ -2897,22 +2927,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C3" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="50" t="s">
         <v>411</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="F3" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>411</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>412</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>412</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>16</v>
@@ -2936,22 +2966,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>16</v>
@@ -2975,22 +3005,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>16</v>
@@ -3014,22 +3044,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>16</v>
@@ -3053,22 +3083,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>16</v>
@@ -3092,22 +3122,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>430</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="F8" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>430</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>431</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>431</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>16</v>
@@ -3131,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>19</v>
@@ -3140,13 +3170,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>16</v>
@@ -3170,7 +3200,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>20</v>
@@ -3179,13 +3209,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>16</v>
@@ -3209,7 +3239,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>21</v>
@@ -3218,13 +3248,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>16</v>
@@ -3248,22 +3278,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C12" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="E12" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="F12" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G12" s="32" t="s">
         <v>435</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>436</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>436</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>16</v>
@@ -3287,22 +3317,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C13" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="E13" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="F13" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>437</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>438</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>438</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>16</v>
@@ -3326,22 +3356,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C14" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="E14" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="F14" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G14" s="32" t="s">
         <v>439</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>440</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>440</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>16</v>
@@ -3365,22 +3395,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C15" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="E15" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="F15" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="G15" s="32" t="s">
         <v>441</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>442</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>16</v>
@@ -3404,22 +3434,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>16</v>
@@ -3443,22 +3473,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>16</v>
@@ -3482,22 +3512,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>16</v>
@@ -3521,22 +3551,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>16</v>
@@ -3560,22 +3590,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>16</v>
@@ -3599,22 +3629,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H21" s="32" t="s">
         <v>16</v>
@@ -3638,22 +3668,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H22" s="32" t="s">
         <v>16</v>
@@ -3677,22 +3707,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H23" s="32" t="s">
         <v>16</v>
@@ -3716,22 +3746,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H24" s="32" t="s">
         <v>16</v>
@@ -3755,22 +3785,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H25" s="32" t="s">
         <v>16</v>
@@ -3794,22 +3824,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H26" s="32" t="s">
         <v>16</v>
@@ -3833,22 +3863,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H27" s="32" t="s">
         <v>16</v>
@@ -3872,22 +3902,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H28" s="32" t="s">
         <v>16</v>
@@ -3911,22 +3941,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H29" s="32" t="s">
         <v>16</v>
@@ -3950,22 +3980,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H30" s="32" t="s">
         <v>16</v>
@@ -3989,22 +4019,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H31" s="32" t="s">
         <v>16</v>
@@ -4028,22 +4058,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H32" s="32" t="s">
         <v>16</v>
@@ -4067,22 +4097,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>16</v>
@@ -4106,22 +4136,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H34" s="32" t="s">
         <v>16</v>
@@ -4145,22 +4175,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H35" s="32" t="s">
         <v>16</v>
@@ -4184,22 +4214,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H36" s="32" t="s">
         <v>16</v>
@@ -4223,22 +4253,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H37" s="32" t="s">
         <v>16</v>
@@ -4262,22 +4292,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H38" s="32" t="s">
         <v>16</v>
@@ -4301,22 +4331,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H39" s="32" t="s">
         <v>16</v>
@@ -4340,22 +4370,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H40" s="32" t="s">
         <v>16</v>
@@ -4379,22 +4409,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>16</v>
@@ -4418,22 +4448,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H42" s="32" t="s">
         <v>16</v>
@@ -4457,22 +4487,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H43" s="32" t="s">
         <v>16</v>
@@ -4496,22 +4526,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>16</v>
@@ -4535,22 +4565,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H45" s="32" t="s">
         <v>16</v>
@@ -4574,22 +4604,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H46" s="32" t="s">
         <v>16</v>
@@ -4613,22 +4643,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>16</v>
@@ -4652,22 +4682,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>16</v>
@@ -4691,22 +4721,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>16</v>
@@ -4730,22 +4760,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>16</v>
@@ -4769,22 +4799,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H51" s="32" t="s">
         <v>16</v>
@@ -4808,22 +4838,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H52" s="32" t="s">
         <v>16</v>
@@ -4847,22 +4877,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>16</v>
@@ -4886,22 +4916,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H54" s="32" t="s">
         <v>16</v>
@@ -4925,22 +4955,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H55" s="32" t="s">
         <v>16</v>
@@ -4964,22 +4994,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H56" s="32" t="s">
         <v>16</v>
@@ -5003,22 +5033,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H57" s="32" t="s">
         <v>16</v>
@@ -5042,22 +5072,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H58" s="32" t="s">
         <v>16</v>
@@ -5081,22 +5111,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H59" s="32" t="s">
         <v>16</v>
@@ -5120,22 +5150,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H60" s="32" t="s">
         <v>16</v>
@@ -5159,22 +5189,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>16</v>
@@ -5198,22 +5228,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H62" s="32" t="s">
         <v>16</v>
@@ -5237,22 +5267,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H63" s="32" t="s">
         <v>16</v>
@@ -5276,22 +5306,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H64" s="32" t="s">
         <v>16</v>
@@ -5315,22 +5345,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H65" s="32" t="s">
         <v>16</v>
@@ -5354,22 +5384,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H66" s="32" t="s">
         <v>16</v>
@@ -5393,22 +5423,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H67" s="32" t="s">
         <v>16</v>
@@ -5432,22 +5462,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H68" s="32" t="s">
         <v>16</v>
@@ -5471,22 +5501,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H69" s="32" t="s">
         <v>16</v>
@@ -5510,22 +5540,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E70" s="50" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H70" s="32" t="s">
         <v>16</v>
@@ -5549,22 +5579,22 @@
         <v>69</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H71" s="32" t="s">
         <v>16</v>
@@ -5588,22 +5618,22 @@
         <v>70</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E72" s="50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H72" s="32" t="s">
         <v>16</v>
@@ -5627,22 +5657,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E73" s="50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H73" s="32" t="s">
         <v>16</v>
@@ -5666,22 +5696,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H74" s="32" t="s">
         <v>16</v>
@@ -5705,22 +5735,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E75" s="50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H75" s="32" t="s">
         <v>16</v>
@@ -5744,22 +5774,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E76" s="50" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H76" s="32" t="s">
         <v>16</v>
@@ -5783,22 +5813,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H77" s="32" t="s">
         <v>16</v>
@@ -5822,22 +5852,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H78" s="32" t="s">
         <v>16</v>
@@ -5861,22 +5891,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E79" s="50" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H79" s="32" t="s">
         <v>16</v>
@@ -5900,22 +5930,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E80" s="50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H80" s="32" t="s">
         <v>16</v>
@@ -5939,22 +5969,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H81" s="32" t="s">
         <v>16</v>
@@ -5978,22 +6008,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E82" s="50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H82" s="32" t="s">
         <v>16</v>
@@ -6017,22 +6047,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E83" s="50" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F83" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H83" s="32" t="s">
         <v>16</v>
@@ -6056,22 +6086,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E84" s="50" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F84" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H84" s="32" t="s">
         <v>16</v>
@@ -6095,22 +6125,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E85" s="50" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F85" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H85" s="32" t="s">
         <v>16</v>
@@ -6134,22 +6164,22 @@
         <v>84</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E86" s="50" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F86" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H86" s="32" t="s">
         <v>16</v>
@@ -6173,22 +6203,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E87" s="50" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H87" s="32" t="s">
         <v>16</v>
@@ -6212,22 +6242,22 @@
         <v>86</v>
       </c>
       <c r="B88" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E88" s="50" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F88" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H88" s="32" t="s">
         <v>16</v>
@@ -6248,13 +6278,13 @@
     </row>
     <row r="89" spans="1:13" ht="30" customHeight="1">
       <c r="A89" s="55" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B89" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="60"/>
@@ -6272,7 +6302,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>22</v>
@@ -6284,7 +6314,7 @@
         <v>23</v>
       </c>
       <c r="F90" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>23</v>
@@ -6311,7 +6341,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>24</v>
@@ -6323,7 +6353,7 @@
         <v>25</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>25</v>
@@ -6350,7 +6380,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>26</v>
@@ -6362,7 +6392,7 @@
         <v>27</v>
       </c>
       <c r="F92" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G92" s="32" t="s">
         <v>27</v>
@@ -6389,7 +6419,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>28</v>
@@ -6401,7 +6431,7 @@
         <v>29</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -6428,7 +6458,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C94" s="40" t="s">
         <v>30</v>
@@ -6440,7 +6470,7 @@
         <v>31</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>31</v>
@@ -6467,7 +6497,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C95" s="40" t="s">
         <v>32</v>
@@ -6479,7 +6509,7 @@
         <v>33</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>33</v>
@@ -6506,7 +6536,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>34</v>
@@ -6518,7 +6548,7 @@
         <v>35</v>
       </c>
       <c r="F96" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G96" s="32" t="s">
         <v>35</v>
@@ -6545,7 +6575,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C97" s="40" t="s">
         <v>36</v>
@@ -6557,7 +6587,7 @@
         <v>37</v>
       </c>
       <c r="F97" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G97" s="32" t="s">
         <v>37</v>
@@ -6584,7 +6614,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C98" s="40" t="s">
         <v>38</v>
@@ -6596,7 +6626,7 @@
         <v>39</v>
       </c>
       <c r="F98" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>39</v>
@@ -6623,7 +6653,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>40</v>
@@ -6635,7 +6665,7 @@
         <v>41</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>41</v>
@@ -6662,7 +6692,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C100" s="40" t="s">
         <v>42</v>
@@ -6674,7 +6704,7 @@
         <v>43</v>
       </c>
       <c r="F100" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G100" s="32" t="s">
         <v>43</v>
@@ -6701,7 +6731,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C101" s="40" t="s">
         <v>44</v>
@@ -6713,7 +6743,7 @@
         <v>45</v>
       </c>
       <c r="F101" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>45</v>
@@ -6740,7 +6770,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C102" s="40" t="s">
         <v>46</v>
@@ -6752,7 +6782,7 @@
         <v>47</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G102" s="32" t="s">
         <v>47</v>
@@ -6779,7 +6809,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C103" s="40" t="s">
         <v>48</v>
@@ -6791,7 +6821,7 @@
         <v>49</v>
       </c>
       <c r="F103" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>49</v>
@@ -6812,7 +6842,7 @@
         <v>100</v>
       </c>
       <c r="M103" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="30" customHeight="1">
@@ -6820,7 +6850,7 @@
         <v>101</v>
       </c>
       <c r="B104" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C104" s="40" t="s">
         <v>50</v>
@@ -6832,7 +6862,7 @@
         <v>51</v>
       </c>
       <c r="F104" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>51</v>
@@ -6859,7 +6889,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C105" s="40" t="s">
         <v>53</v>
@@ -6871,7 +6901,7 @@
         <v>54</v>
       </c>
       <c r="F105" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>54</v>
@@ -6892,7 +6922,7 @@
         <v>102</v>
       </c>
       <c r="M105" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1">
@@ -6900,7 +6930,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="50" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C106" s="40" t="s">
         <v>55</v>
@@ -6912,7 +6942,7 @@
         <v>56</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G106" s="32" t="s">
         <v>56</v>
@@ -6936,13 +6966,13 @@
     </row>
     <row r="107" spans="1:13" ht="30" customHeight="1">
       <c r="A107" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B107" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="60"/>
@@ -6960,7 +6990,7 @@
         <v>104</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C108" s="40" t="s">
         <v>57</v>
@@ -6972,7 +7002,7 @@
         <v>58</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G108" s="32" t="s">
         <v>58</v>
@@ -6993,7 +7023,7 @@
         <v>104</v>
       </c>
       <c r="M108" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="30" customHeight="1">
@@ -7001,7 +7031,7 @@
         <v>105</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C109" s="40" t="s">
         <v>59</v>
@@ -7013,7 +7043,7 @@
         <v>60</v>
       </c>
       <c r="F109" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G109" s="32" t="s">
         <v>60</v>
@@ -7034,7 +7064,7 @@
         <v>105</v>
       </c>
       <c r="M109" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="30" customHeight="1">
@@ -7042,7 +7072,7 @@
         <v>106</v>
       </c>
       <c r="B110" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C110" s="40" t="s">
         <v>61</v>
@@ -7054,7 +7084,7 @@
         <v>62</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G110" s="32" t="s">
         <v>62</v>
@@ -7075,7 +7105,7 @@
         <v>106</v>
       </c>
       <c r="M110" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1">
@@ -7083,7 +7113,7 @@
         <v>107</v>
       </c>
       <c r="B111" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C111" s="40" t="s">
         <v>63</v>
@@ -7095,7 +7125,7 @@
         <v>64</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G111" s="32" t="s">
         <v>64</v>
@@ -7116,7 +7146,7 @@
         <v>107</v>
       </c>
       <c r="M111" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="30" customHeight="1">
@@ -7124,7 +7154,7 @@
         <v>108</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C112" s="40" t="s">
         <v>65</v>
@@ -7136,7 +7166,7 @@
         <v>66</v>
       </c>
       <c r="F112" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G112" s="32" t="s">
         <v>66</v>
@@ -7157,7 +7187,7 @@
         <v>108</v>
       </c>
       <c r="M112" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="30" customHeight="1">
@@ -7165,19 +7195,19 @@
         <v>109</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C113" s="40" t="s">
         <v>67</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E113" s="50" t="s">
         <v>68</v>
       </c>
       <c r="F113" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G113" s="32" t="s">
         <v>68</v>
@@ -7198,7 +7228,7 @@
         <v>109</v>
       </c>
       <c r="M113" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="30" customHeight="1">
@@ -7206,7 +7236,7 @@
         <v>110</v>
       </c>
       <c r="B114" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C114" s="40" t="s">
         <v>69</v>
@@ -7218,7 +7248,7 @@
         <v>70</v>
       </c>
       <c r="F114" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G114" s="32" t="s">
         <v>70</v>
@@ -7239,7 +7269,7 @@
         <v>110</v>
       </c>
       <c r="M114" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1">
@@ -7247,7 +7277,7 @@
         <v>111</v>
       </c>
       <c r="B115" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C115" s="40" t="s">
         <v>71</v>
@@ -7259,7 +7289,7 @@
         <v>72</v>
       </c>
       <c r="F115" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G115" s="32" t="s">
         <v>72</v>
@@ -7280,7 +7310,7 @@
         <v>111</v>
       </c>
       <c r="M115" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="30" customHeight="1">
@@ -7288,7 +7318,7 @@
         <v>112</v>
       </c>
       <c r="B116" s="50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C116" s="40" t="s">
         <v>73</v>
@@ -7300,7 +7330,7 @@
         <v>74</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G116" s="32" t="s">
         <v>74</v>
@@ -7321,18 +7351,18 @@
         <v>112</v>
       </c>
       <c r="M116" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1">
       <c r="A117" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B117" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C117" s="36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="60"/>
@@ -7345,51 +7375,51 @@
       <c r="L117" s="35"/>
       <c r="M117" s="35"/>
     </row>
-    <row r="118" spans="1:13" ht="30" customHeight="1">
-      <c r="A118" s="39">
+    <row r="118" spans="1:13" s="19" customFormat="1" ht="30" customHeight="1">
+      <c r="A118" s="63">
         <v>113</v>
       </c>
-      <c r="B118" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="C118" s="40" t="s">
+      <c r="B118" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="C118" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="D118" s="40" t="s">
+      <c r="D118" s="65" t="s">
         <v>386</v>
       </c>
-      <c r="E118" s="50" t="s">
+      <c r="E118" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="F118" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G118" s="32" t="s">
+      <c r="F118" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="G118" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="H118" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J118" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K118" s="32">
-        <v>1</v>
-      </c>
-      <c r="L118" s="44">
+      <c r="H118" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="62">
+        <v>1</v>
+      </c>
+      <c r="L118" s="66">
         <v>113</v>
       </c>
-      <c r="M118" s="32"/>
+      <c r="M118" s="62"/>
     </row>
     <row r="119" spans="1:13" ht="30" customHeight="1">
       <c r="A119" s="39">
         <v>114</v>
       </c>
       <c r="B119" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C119" s="40" t="s">
         <v>77</v>
@@ -7401,7 +7431,7 @@
         <v>78</v>
       </c>
       <c r="F119" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G119" s="32" t="s">
         <v>78</v>
@@ -7428,7 +7458,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C120" s="40" t="s">
         <v>79</v>
@@ -7440,7 +7470,7 @@
         <v>80</v>
       </c>
       <c r="F120" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G120" s="32" t="s">
         <v>80</v>
@@ -7467,7 +7497,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C121" s="40" t="s">
         <v>81</v>
@@ -7479,7 +7509,7 @@
         <v>82</v>
       </c>
       <c r="F121" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G121" s="32" t="s">
         <v>82</v>
@@ -7506,7 +7536,7 @@
         <v>117</v>
       </c>
       <c r="B122" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C122" s="40" t="s">
         <v>83</v>
@@ -7518,7 +7548,7 @@
         <v>84</v>
       </c>
       <c r="F122" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G122" s="32" t="s">
         <v>84</v>
@@ -7545,7 +7575,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C123" s="40" t="s">
         <v>85</v>
@@ -7557,7 +7587,7 @@
         <v>86</v>
       </c>
       <c r="F123" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G123" s="32" t="s">
         <v>86</v>
@@ -7584,7 +7614,7 @@
         <v>119</v>
       </c>
       <c r="B124" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C124" s="40" t="s">
         <v>87</v>
@@ -7596,7 +7626,7 @@
         <v>88</v>
       </c>
       <c r="F124" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G124" s="32" t="s">
         <v>88</v>
@@ -7623,7 +7653,7 @@
         <v>120</v>
       </c>
       <c r="B125" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C125" s="40" t="s">
         <v>89</v>
@@ -7635,7 +7665,7 @@
         <v>90</v>
       </c>
       <c r="F125" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G125" s="32" t="s">
         <v>90</v>
@@ -7662,7 +7692,7 @@
         <v>121</v>
       </c>
       <c r="B126" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C126" s="40" t="s">
         <v>91</v>
@@ -7674,7 +7704,7 @@
         <v>92</v>
       </c>
       <c r="F126" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G126" s="32" t="s">
         <v>92</v>
@@ -7701,7 +7731,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C127" s="40" t="s">
         <v>93</v>
@@ -7713,7 +7743,7 @@
         <v>94</v>
       </c>
       <c r="F127" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G127" s="32" t="s">
         <v>94</v>
@@ -7740,7 +7770,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C128" s="40" t="s">
         <v>95</v>
@@ -7752,7 +7782,7 @@
         <v>96</v>
       </c>
       <c r="F128" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G128" s="32" t="s">
         <v>96</v>
@@ -7779,7 +7809,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C129" s="40" t="s">
         <v>99</v>
@@ -7791,7 +7821,7 @@
         <v>98</v>
       </c>
       <c r="F129" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G129" s="32" t="s">
         <v>98</v>
@@ -7818,7 +7848,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C130" s="40" t="s">
         <v>97</v>
@@ -7830,7 +7860,7 @@
         <v>100</v>
       </c>
       <c r="F130" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G130" s="32" t="s">
         <v>100</v>
@@ -7851,7 +7881,7 @@
         <v>125</v>
       </c>
       <c r="M130" s="62" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="30" customHeight="1">
@@ -7859,7 +7889,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C131" s="40" t="s">
         <v>103</v>
@@ -7871,7 +7901,7 @@
         <v>102</v>
       </c>
       <c r="F131" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G131" s="32" t="s">
         <v>102</v>
@@ -7898,7 +7928,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C132" s="40" t="s">
         <v>105</v>
@@ -7910,7 +7940,7 @@
         <v>104</v>
       </c>
       <c r="F132" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G132" s="32" t="s">
         <v>104</v>
@@ -7937,7 +7967,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C133" s="40" t="s">
         <v>107</v>
@@ -7949,7 +7979,7 @@
         <v>106</v>
       </c>
       <c r="F133" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G133" s="32" t="s">
         <v>106</v>
@@ -7969,8 +7999,8 @@
       <c r="L133" s="44">
         <v>128</v>
       </c>
-      <c r="M133" s="32" t="s">
-        <v>631</v>
+      <c r="M133" s="62" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="30" customHeight="1">
@@ -7978,7 +8008,7 @@
         <v>129</v>
       </c>
       <c r="B134" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C134" s="40" t="s">
         <v>109</v>
@@ -7990,7 +8020,7 @@
         <v>108</v>
       </c>
       <c r="F134" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G134" s="32" t="s">
         <v>108</v>
@@ -8017,7 +8047,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C135" s="40" t="s">
         <v>111</v>
@@ -8029,7 +8059,7 @@
         <v>110</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G135" s="32" t="s">
         <v>110</v>
@@ -8056,7 +8086,7 @@
         <v>131</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C136" s="40" t="s">
         <v>113</v>
@@ -8068,7 +8098,7 @@
         <v>112</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G136" s="32" t="s">
         <v>112</v>
@@ -8088,8 +8118,8 @@
       <c r="L136" s="44">
         <v>131</v>
       </c>
-      <c r="M136" s="32" t="s">
-        <v>635</v>
+      <c r="M136" s="62" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1">
@@ -8097,7 +8127,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C137" s="40" t="s">
         <v>115</v>
@@ -8109,7 +8139,7 @@
         <v>114</v>
       </c>
       <c r="F137" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G137" s="32" t="s">
         <v>114</v>
@@ -8121,7 +8151,7 @@
         <v>17</v>
       </c>
       <c r="J137" s="43" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K137" s="32">
         <v>1</v>
@@ -8136,7 +8166,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C138" s="40" t="s">
         <v>117</v>
@@ -8148,7 +8178,7 @@
         <v>116</v>
       </c>
       <c r="F138" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G138" s="32" t="s">
         <v>116</v>
@@ -8160,7 +8190,7 @@
         <v>17</v>
       </c>
       <c r="J138" s="43" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K138" s="32">
         <v>1</v>
@@ -8175,7 +8205,7 @@
         <v>134</v>
       </c>
       <c r="B139" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C139" s="40" t="s">
         <v>119</v>
@@ -8187,7 +8217,7 @@
         <v>118</v>
       </c>
       <c r="F139" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G139" s="32" t="s">
         <v>118</v>
@@ -8199,7 +8229,7 @@
         <v>17</v>
       </c>
       <c r="J139" s="43" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K139" s="32">
         <v>1</v>
@@ -8214,19 +8244,19 @@
         <v>135</v>
       </c>
       <c r="B140" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C140" s="40" t="s">
         <v>121</v>
       </c>
       <c r="D140" s="40" t="s">
-        <v>115</v>
+        <v>635</v>
       </c>
       <c r="E140" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F140" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G140" s="32" t="s">
         <v>120</v>
@@ -8246,8 +8276,8 @@
       <c r="L140" s="44">
         <v>135</v>
       </c>
-      <c r="M140" s="32" t="s">
-        <v>636</v>
+      <c r="M140" s="62" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="30" customHeight="1">
@@ -8255,19 +8285,19 @@
         <v>136</v>
       </c>
       <c r="B141" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C141" s="40" t="s">
         <v>123</v>
       </c>
       <c r="D141" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E141" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F141" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G141" s="32" t="s">
         <v>122</v>
@@ -8287,26 +8317,28 @@
       <c r="L141" s="44">
         <v>136</v>
       </c>
-      <c r="M141" s="32"/>
+      <c r="M141" s="62" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="142" spans="1:13" ht="30" customHeight="1">
       <c r="A142" s="39">
         <v>137</v>
       </c>
       <c r="B142" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C142" s="40" t="s">
         <v>125</v>
       </c>
       <c r="D142" s="40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E142" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F142" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G142" s="32" t="s">
         <v>124</v>
@@ -8326,26 +8358,28 @@
       <c r="L142" s="44">
         <v>137</v>
       </c>
-      <c r="M142" s="32"/>
+      <c r="M142" s="62" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="143" spans="1:13" ht="30" customHeight="1">
       <c r="A143" s="39">
         <v>138</v>
       </c>
       <c r="B143" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C143" s="40" t="s">
         <v>127</v>
       </c>
       <c r="D143" s="40" t="s">
-        <v>121</v>
+        <v>386</v>
       </c>
       <c r="E143" s="50" t="s">
         <v>126</v>
       </c>
       <c r="F143" s="32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G143" s="32" t="s">
         <v>126</v>
@@ -8365,26 +8399,28 @@
       <c r="L143" s="44">
         <v>138</v>
       </c>
-      <c r="M143" s="32"/>
+      <c r="M143" s="62" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="144" spans="1:13" ht="30" customHeight="1">
       <c r="A144" s="39">
         <v>139</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C144" s="40" t="s">
         <v>129</v>
       </c>
       <c r="D144" s="40" t="s">
-        <v>123</v>
+        <v>636</v>
       </c>
       <c r="E144" s="50" t="s">
         <v>128</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G144" s="32" t="s">
         <v>128</v>
@@ -8404,14 +8440,16 @@
       <c r="L144" s="44">
         <v>139</v>
       </c>
-      <c r="M144" s="32"/>
+      <c r="M144" s="62" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1">
       <c r="A145" s="39">
         <v>140</v>
       </c>
       <c r="B145" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C145" s="40" t="s">
         <v>131</v>
@@ -8423,7 +8461,7 @@
         <v>130</v>
       </c>
       <c r="F145" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G145" s="32" t="s">
         <v>130</v>
@@ -8450,19 +8488,19 @@
         <v>141</v>
       </c>
       <c r="B146" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C146" s="40" t="s">
         <v>133</v>
       </c>
       <c r="D146" s="40" t="s">
-        <v>127</v>
+        <v>637</v>
       </c>
       <c r="E146" s="50" t="s">
         <v>132</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G146" s="32" t="s">
         <v>132</v>
@@ -8489,19 +8527,19 @@
         <v>142</v>
       </c>
       <c r="B147" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C147" s="40" t="s">
         <v>135</v>
       </c>
       <c r="D147" s="40" t="s">
-        <v>129</v>
+        <v>638</v>
       </c>
       <c r="E147" s="50" t="s">
         <v>134</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G147" s="32" t="s">
         <v>134</v>
@@ -8513,7 +8551,7 @@
         <v>17</v>
       </c>
       <c r="J147" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -8528,7 +8566,7 @@
         <v>143</v>
       </c>
       <c r="B148" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C148" s="40" t="s">
         <v>137</v>
@@ -8540,7 +8578,7 @@
         <v>136</v>
       </c>
       <c r="F148" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G148" s="32" t="s">
         <v>136</v>
@@ -8552,7 +8590,7 @@
         <v>17</v>
       </c>
       <c r="J148" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
@@ -8567,19 +8605,19 @@
         <v>144</v>
       </c>
       <c r="B149" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C149" s="40" t="s">
         <v>139</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>387</v>
+        <v>639</v>
       </c>
       <c r="E149" s="50" t="s">
         <v>138</v>
       </c>
       <c r="F149" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G149" s="32" t="s">
         <v>138</v>
@@ -8591,7 +8629,7 @@
         <v>17</v>
       </c>
       <c r="J149" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -8606,19 +8644,19 @@
         <v>145</v>
       </c>
       <c r="B150" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C150" s="40" t="s">
         <v>141</v>
       </c>
       <c r="D150" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E150" s="50" t="s">
         <v>140</v>
       </c>
       <c r="F150" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G150" s="32" t="s">
         <v>140</v>
@@ -8642,13 +8680,13 @@
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1">
       <c r="A151" s="55" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B151" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="60"/>
@@ -8666,7 +8704,7 @@
         <v>146</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C152" s="40" t="s">
         <v>143</v>
@@ -8678,7 +8716,7 @@
         <v>142</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G152" s="32" t="s">
         <v>142</v>
@@ -8705,7 +8743,7 @@
         <v>147</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C153" s="40" t="s">
         <v>145</v>
@@ -8717,7 +8755,7 @@
         <v>144</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G153" s="32" t="s">
         <v>144</v>
@@ -8744,7 +8782,7 @@
         <v>148</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C154" s="40" t="s">
         <v>147</v>
@@ -8756,7 +8794,7 @@
         <v>146</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G154" s="32" t="s">
         <v>146</v>
@@ -8783,7 +8821,7 @@
         <v>149</v>
       </c>
       <c r="B155" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C155" s="40" t="s">
         <v>149</v>
@@ -8795,7 +8833,7 @@
         <v>148</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G155" s="32" t="s">
         <v>148</v>
@@ -8822,7 +8860,7 @@
         <v>150</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C156" s="40" t="s">
         <v>151</v>
@@ -8834,7 +8872,7 @@
         <v>150</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G156" s="32" t="s">
         <v>150</v>
@@ -8861,7 +8899,7 @@
         <v>151</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C157" s="51" t="s">
         <v>145</v>
@@ -8873,7 +8911,7 @@
         <v>152</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G157" s="32" t="s">
         <v>152</v>
@@ -8899,7 +8937,7 @@
         <v>152</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C158" s="51" t="s">
         <v>147</v>
@@ -8908,13 +8946,13 @@
         <v>147</v>
       </c>
       <c r="E158" s="50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H158" s="32" t="s">
         <v>16</v>
@@ -8964,7 +9002,7 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9022,210 +9060,210 @@
         <v>159</v>
       </c>
       <c r="H1" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="I1" s="56" t="s">
         <v>420</v>
       </c>
-      <c r="I1" s="56" t="s">
-        <v>421</v>
-      </c>
       <c r="J1" s="56" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K1" s="56" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L1" s="61" t="s">
+        <v>609</v>
+      </c>
+      <c r="M1" s="61" t="s">
         <v>610</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="N1" s="61" t="s">
+        <v>603</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>605</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q1" s="61" t="s">
         <v>611</v>
       </c>
-      <c r="N1" s="61" t="s">
-        <v>604</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>606</v>
-      </c>
-      <c r="P1" s="61" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q1" s="61" t="s">
-        <v>612</v>
-      </c>
       <c r="R1" s="61" t="s">
+        <v>592</v>
+      </c>
+      <c r="S1" s="61" t="s">
         <v>593</v>
       </c>
-      <c r="S1" s="61" t="s">
-        <v>594</v>
-      </c>
       <c r="T1" s="61" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="U1" s="61" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="V1" s="61" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="W1" s="61" t="s">
         <v>3</v>
       </c>
       <c r="X1" s="61" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Y1" s="61" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Z1" s="61" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AA1" s="61" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB1" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="AB1" s="61" t="s">
-        <v>620</v>
-      </c>
       <c r="AC1" s="61" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AD1" s="61" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AE1" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="AF1" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="AF1" s="52" t="s">
+      <c r="AG1" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="AG1" s="52" t="s">
+      <c r="AH1" s="52" t="s">
         <v>405</v>
-      </c>
-      <c r="AH1" s="52" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2" s="57" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F2" s="2">
         <v>1234</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I2" s="46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L2" s="45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M2" s="45" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="P2" s="45" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="Q2" s="45" t="s">
+        <v>612</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>597</v>
+      </c>
+      <c r="U2" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="V2" s="45" t="s">
+        <v>601</v>
+      </c>
+      <c r="W2" s="45" t="s">
         <v>613</v>
       </c>
-      <c r="R2" s="45" t="s">
-        <v>595</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>595</v>
-      </c>
-      <c r="T2" s="45" t="s">
-        <v>598</v>
-      </c>
-      <c r="U2" s="45" t="s">
-        <v>600</v>
-      </c>
-      <c r="V2" s="45" t="s">
-        <v>602</v>
-      </c>
-      <c r="W2" s="45" t="s">
-        <v>614</v>
-      </c>
       <c r="X2" s="45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Y2" s="45" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Z2" s="45" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AA2" s="45">
         <v>3</v>
       </c>
       <c r="AB2" s="45" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AC2" s="45" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AD2" s="45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AE2" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="AF2" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="AF2" s="51" t="s">
+      <c r="AG2" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="AG2" s="54" t="s">
+      <c r="AH2" s="54" t="s">
         <v>409</v>
-      </c>
-      <c r="AH2" s="54" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="46">
         <v>1019075926</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F3" s="46">
         <v>1234</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -10874,20 +10912,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="65"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="68"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="69"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A44" s="12">

--- a/src/test/resources/Run_Manager_Full_Auction_Journey.xlsx
+++ b/src/test/resources/Run_Manager_Full_Auction_Journey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\New_Sakani_TST_Git\Sakani_TST_New\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\Sakani_TST_New\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD9556-B96C-4C04-9246-D13A85945D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9E499E-65C4-4A62-A64D-8B72F353B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2148" windowWidth="18756" windowHeight="10092" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="633">
   <si>
     <t>P_Key</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Verify user is able to click on cancel button</t>
   </si>
   <si>
-    <t>Full_Auction_Journey_TC_69</t>
-  </si>
-  <si>
     <t>Verify user is not able to click on Start bidding button if the I confirm reading, understanding and agreeing to the terms and conditions checkbox not selected</t>
   </si>
   <si>
@@ -566,6 +563,9 @@
     <t>TC_43</t>
   </si>
   <si>
+    <t>1234</t>
+  </si>
+  <si>
     <t>TC_44</t>
   </si>
   <si>
@@ -1199,7 +1199,7 @@
     <t>Verify user is able to click on back button from payment page</t>
   </si>
   <si>
-    <t>Create new Auction without fee from admin side</t>
+    <t>Verify user is able to click on view invoice link text</t>
   </si>
   <si>
     <t>Verify user is not able to access auction that already Expired/End</t>
@@ -1919,49 +1919,25 @@
     <t>Nearest_School_Distance</t>
   </si>
   <si>
-    <t>Auction TEST 00</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Not executed</t>
-  </si>
-  <si>
-    <t>Re execute</t>
-  </si>
-  <si>
-    <t>There are no closed auctions</t>
+    <t>https://test-sakani.housingapps.sa/</t>
+  </si>
+  <si>
+    <t>1019075926</t>
   </si>
   <si>
     <t>Aa123456@</t>
   </si>
   <si>
-    <t>https://test-sakani.housingapps.sa/en</t>
-  </si>
-  <si>
-    <t>Sign contract is not downloaded</t>
-  </si>
-  <si>
-    <t>Need to execute later</t>
-  </si>
-  <si>
-    <t>Verify user is NOT able to click Confirm Rejection button if reject reason is not entered from  Reject Contract page</t>
-  </si>
-  <si>
-    <t>User bid the new auction</t>
-  </si>
-  <si>
-    <t>Verify the Sign Contract is Approved</t>
-  </si>
-  <si>
-    <t>Verify user is able to click on view invoice button</t>
-  </si>
-  <si>
-    <t>Verify user is able to click on view Acknowledgment link text</t>
-  </si>
-  <si>
-    <t>Mazad 00</t>
+    <t>Verify admin create auction project with fee</t>
+  </si>
+  <si>
+    <t>Full_Auction_Journey_New_With_Fee</t>
+  </si>
+  <si>
+    <t>Auction Auto Project 08</t>
+  </si>
+  <si>
+    <t>Auto Auction Test_</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2192,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
   </fills>
@@ -2287,7 +2263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2416,20 +2392,8 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2826,19 +2790,19 @@
   <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J145" sqref="J145:J146"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="141.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="77.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="31.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5546875" style="27" bestFit="1" customWidth="1"/>
@@ -2846,7 +2810,7 @@
     <col min="10" max="10" width="14.21875" style="27" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.109375" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.109375" style="27" customWidth="1"/>
     <col min="14" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
@@ -6841,9 +6805,7 @@
       <c r="L103" s="44">
         <v>100</v>
       </c>
-      <c r="M103" s="32" t="s">
-        <v>627</v>
-      </c>
+      <c r="M103" s="32"/>
     </row>
     <row r="104" spans="1:13" ht="30" customHeight="1">
       <c r="A104" s="39">
@@ -6921,9 +6883,7 @@
       <c r="L105" s="44">
         <v>102</v>
       </c>
-      <c r="M105" s="32" t="s">
-        <v>627</v>
-      </c>
+      <c r="M105" s="32"/>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1">
       <c r="A106" s="39">
@@ -6972,7 +6932,7 @@
         <v>15</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="60"/>
@@ -6990,22 +6950,22 @@
         <v>104</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E108" s="50" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="H108" s="32" t="s">
         <v>16</v>
@@ -7022,31 +6982,29 @@
       <c r="L108" s="44">
         <v>104</v>
       </c>
-      <c r="M108" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M108" s="32"/>
     </row>
     <row r="109" spans="1:13" ht="30" customHeight="1">
       <c r="A109" s="39">
         <v>105</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E109" s="50" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F109" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="H109" s="32" t="s">
         <v>16</v>
@@ -7063,31 +7021,29 @@
       <c r="L109" s="44">
         <v>105</v>
       </c>
-      <c r="M109" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M109" s="32"/>
     </row>
     <row r="110" spans="1:13" ht="30" customHeight="1">
       <c r="A110" s="39">
         <v>106</v>
       </c>
       <c r="B110" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E110" s="50" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H110" s="32" t="s">
         <v>16</v>
@@ -7104,31 +7060,29 @@
       <c r="L110" s="44">
         <v>106</v>
       </c>
-      <c r="M110" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M110" s="32"/>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1">
       <c r="A111" s="39">
         <v>107</v>
       </c>
       <c r="B111" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E111" s="50" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="H111" s="32" t="s">
         <v>16</v>
@@ -7145,31 +7099,29 @@
       <c r="L111" s="44">
         <v>107</v>
       </c>
-      <c r="M111" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M111" s="32"/>
     </row>
     <row r="112" spans="1:13" ht="30" customHeight="1">
       <c r="A112" s="39">
         <v>108</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E112" s="50" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="F112" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="H112" s="32" t="s">
         <v>16</v>
@@ -7186,31 +7138,29 @@
       <c r="L112" s="44">
         <v>108</v>
       </c>
-      <c r="M112" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M112" s="32"/>
     </row>
     <row r="113" spans="1:13" ht="30" customHeight="1">
       <c r="A113" s="39">
         <v>109</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>395</v>
+        <v>80</v>
       </c>
       <c r="E113" s="50" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F113" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="H113" s="32" t="s">
         <v>16</v>
@@ -7227,31 +7177,29 @@
       <c r="L113" s="44">
         <v>109</v>
       </c>
-      <c r="M113" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M113" s="32"/>
     </row>
     <row r="114" spans="1:13" ht="30" customHeight="1">
       <c r="A114" s="39">
         <v>110</v>
       </c>
       <c r="B114" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="E114" s="50" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="F114" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="H114" s="32" t="s">
         <v>16</v>
@@ -7268,31 +7216,29 @@
       <c r="L114" s="44">
         <v>110</v>
       </c>
-      <c r="M114" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M114" s="32"/>
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1">
       <c r="A115" s="39">
         <v>111</v>
       </c>
       <c r="B115" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>385</v>
+        <v>84</v>
       </c>
       <c r="E115" s="50" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F115" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H115" s="32" t="s">
         <v>16</v>
@@ -7309,31 +7255,29 @@
       <c r="L115" s="44">
         <v>111</v>
       </c>
-      <c r="M115" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M115" s="32"/>
     </row>
     <row r="116" spans="1:13" ht="30" customHeight="1">
       <c r="A116" s="39">
         <v>112</v>
       </c>
       <c r="B116" s="50" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>151</v>
+        <v>86</v>
       </c>
       <c r="E116" s="50" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="H116" s="32" t="s">
         <v>16</v>
@@ -7350,91 +7294,107 @@
       <c r="L116" s="44">
         <v>112</v>
       </c>
-      <c r="M116" s="32" t="s">
-        <v>628</v>
-      </c>
+      <c r="M116" s="32"/>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1">
-      <c r="A117" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="B117" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C117" s="36" t="s">
+      <c r="A117" s="39">
+        <v>113</v>
+      </c>
+      <c r="B117" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="D117" s="35"/>
-      <c r="E117" s="60"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="35"/>
-      <c r="K117" s="35"/>
-      <c r="L117" s="35"/>
-      <c r="M117" s="35"/>
-    </row>
-    <row r="118" spans="1:13" s="19" customFormat="1" ht="30" customHeight="1">
-      <c r="A118" s="63">
+      <c r="C117" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E117" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="F117" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="H117" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K117" s="32">
+        <v>1</v>
+      </c>
+      <c r="L117" s="44">
         <v>113</v>
       </c>
-      <c r="B118" s="64" t="s">
+      <c r="M117" s="32"/>
+    </row>
+    <row r="118" spans="1:13" ht="30" customHeight="1">
+      <c r="A118" s="39">
+        <v>114</v>
+      </c>
+      <c r="B118" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="C118" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D118" s="65" t="s">
-        <v>386</v>
-      </c>
-      <c r="E118" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="F118" s="62" t="s">
-        <v>399</v>
-      </c>
-      <c r="G118" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="H118" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="J118" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="K118" s="62">
-        <v>1</v>
-      </c>
-      <c r="L118" s="66">
-        <v>113</v>
-      </c>
-      <c r="M118" s="62"/>
+      <c r="C118" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E118" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="F118" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H118" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="32">
+        <v>1</v>
+      </c>
+      <c r="L118" s="44">
+        <v>114</v>
+      </c>
+      <c r="M118" s="32"/>
     </row>
     <row r="119" spans="1:13" ht="30" customHeight="1">
       <c r="A119" s="39">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B119" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="E119" s="50" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="F119" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H119" s="32" t="s">
         <v>16</v>
@@ -7449,31 +7409,31 @@
         <v>1</v>
       </c>
       <c r="L119" s="44">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M119" s="32"/>
     </row>
     <row r="120" spans="1:13" ht="30" customHeight="1">
       <c r="A120" s="39">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B120" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E120" s="50" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F120" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="H120" s="32" t="s">
         <v>16</v>
@@ -7488,31 +7448,31 @@
         <v>1</v>
       </c>
       <c r="L120" s="44">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M120" s="32"/>
     </row>
     <row r="121" spans="1:13" ht="30" customHeight="1">
       <c r="A121" s="39">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B121" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="E121" s="50" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="F121" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="H121" s="32" t="s">
         <v>16</v>
@@ -7527,31 +7487,31 @@
         <v>1</v>
       </c>
       <c r="L121" s="44">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M121" s="32"/>
     </row>
     <row r="122" spans="1:13" ht="30" customHeight="1">
       <c r="A122" s="39">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B122" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="E122" s="50" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="F122" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H122" s="32" t="s">
         <v>16</v>
@@ -7566,31 +7526,31 @@
         <v>1</v>
       </c>
       <c r="L122" s="44">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M122" s="32"/>
     </row>
     <row r="123" spans="1:13" ht="30" customHeight="1">
       <c r="A123" s="39">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B123" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E123" s="50" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F123" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="H123" s="32" t="s">
         <v>16</v>
@@ -7605,31 +7565,31 @@
         <v>1</v>
       </c>
       <c r="L123" s="44">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M123" s="32"/>
     </row>
     <row r="124" spans="1:13" ht="30" customHeight="1">
       <c r="A124" s="39">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B124" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="E124" s="50" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="F124" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="H124" s="32" t="s">
         <v>16</v>
@@ -7644,31 +7604,31 @@
         <v>1</v>
       </c>
       <c r="L124" s="44">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M124" s="32"/>
     </row>
     <row r="125" spans="1:13" ht="30" customHeight="1">
       <c r="A125" s="39">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B125" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="E125" s="50" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F125" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="H125" s="32" t="s">
         <v>16</v>
@@ -7683,31 +7643,31 @@
         <v>1</v>
       </c>
       <c r="L125" s="44">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M125" s="32"/>
     </row>
     <row r="126" spans="1:13" ht="30" customHeight="1">
       <c r="A126" s="39">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B126" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E126" s="50" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="F126" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H126" s="32" t="s">
         <v>16</v>
@@ -7722,31 +7682,31 @@
         <v>1</v>
       </c>
       <c r="L126" s="44">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M126" s="32"/>
     </row>
     <row r="127" spans="1:13" ht="30" customHeight="1">
       <c r="A127" s="39">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B127" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E127" s="50" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F127" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="H127" s="32" t="s">
         <v>16</v>
@@ -7761,31 +7721,31 @@
         <v>1</v>
       </c>
       <c r="L127" s="44">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M127" s="32"/>
     </row>
     <row r="128" spans="1:13" ht="30" customHeight="1">
       <c r="A128" s="39">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B128" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E128" s="50" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F128" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="H128" s="32" t="s">
         <v>16</v>
@@ -7800,31 +7760,31 @@
         <v>1</v>
       </c>
       <c r="L128" s="44">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M128" s="32"/>
     </row>
     <row r="129" spans="1:13" ht="30" customHeight="1">
       <c r="A129" s="39">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B129" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F129" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H129" s="32" t="s">
         <v>16</v>
@@ -7839,31 +7799,31 @@
         <v>1</v>
       </c>
       <c r="L129" s="44">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M129" s="32"/>
     </row>
     <row r="130" spans="1:13" ht="30" customHeight="1">
       <c r="A130" s="39">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B130" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="F130" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H130" s="32" t="s">
         <v>16</v>
@@ -7878,33 +7838,31 @@
         <v>1</v>
       </c>
       <c r="L130" s="44">
-        <v>125</v>
-      </c>
-      <c r="M130" s="62" t="s">
-        <v>629</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="M130" s="32"/>
     </row>
     <row r="131" spans="1:13" ht="30" customHeight="1">
       <c r="A131" s="39">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B131" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="D131" s="40" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E131" s="50" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="F131" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G131" s="32" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="H131" s="32" t="s">
         <v>16</v>
@@ -7919,31 +7877,31 @@
         <v>1</v>
       </c>
       <c r="L131" s="44">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M131" s="32"/>
     </row>
     <row r="132" spans="1:13" ht="30" customHeight="1">
       <c r="A132" s="39">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B132" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E132" s="50" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="F132" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H132" s="32" t="s">
         <v>16</v>
@@ -7958,31 +7916,31 @@
         <v>1</v>
       </c>
       <c r="L132" s="44">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M132" s="32"/>
     </row>
     <row r="133" spans="1:13" ht="30" customHeight="1">
       <c r="A133" s="39">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B133" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C133" s="40" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="D133" s="40" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E133" s="50" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F133" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="H133" s="32" t="s">
         <v>16</v>
@@ -7997,33 +7955,31 @@
         <v>1</v>
       </c>
       <c r="L133" s="44">
-        <v>128</v>
-      </c>
-      <c r="M133" s="62" t="s">
-        <v>630</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="M133" s="32"/>
     </row>
     <row r="134" spans="1:13" ht="30" customHeight="1">
       <c r="A134" s="39">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B134" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E134" s="50" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="F134" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H134" s="32" t="s">
         <v>16</v>
@@ -8038,31 +7994,31 @@
         <v>1</v>
       </c>
       <c r="L134" s="44">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M134" s="32"/>
     </row>
     <row r="135" spans="1:13" ht="30" customHeight="1">
       <c r="A135" s="39">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B135" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E135" s="50" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="F135" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="H135" s="32" t="s">
         <v>16</v>
@@ -8077,31 +8033,31 @@
         <v>1</v>
       </c>
       <c r="L135" s="44">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M135" s="32"/>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1">
       <c r="A136" s="39">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B136" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D136" s="40" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E136" s="50" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="F136" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="H136" s="32" t="s">
         <v>16</v>
@@ -8116,33 +8072,31 @@
         <v>1</v>
       </c>
       <c r="L136" s="44">
-        <v>131</v>
-      </c>
-      <c r="M136" s="62" t="s">
-        <v>633</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M136" s="32"/>
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1">
       <c r="A137" s="39">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B137" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D137" s="40" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="F137" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="H137" s="32" t="s">
         <v>16</v>
@@ -8157,31 +8111,31 @@
         <v>1</v>
       </c>
       <c r="L137" s="44">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M137" s="32"/>
     </row>
     <row r="138" spans="1:13" ht="30" customHeight="1">
       <c r="A138" s="39">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B138" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D138" s="40" t="s">
-        <v>111</v>
+        <v>386</v>
       </c>
       <c r="E138" s="50" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="F138" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G138" s="32" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="H138" s="32" t="s">
         <v>16</v>
@@ -8196,31 +8150,31 @@
         <v>1</v>
       </c>
       <c r="L138" s="44">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M138" s="32"/>
     </row>
     <row r="139" spans="1:13" ht="30" customHeight="1">
       <c r="A139" s="39">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B139" s="50" t="s">
         <v>391</v>
       </c>
       <c r="C139" s="40" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D139" s="40" t="s">
-        <v>113</v>
+        <v>387</v>
       </c>
       <c r="E139" s="50" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="F139" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G139" s="32" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="H139" s="32" t="s">
         <v>16</v>
@@ -8235,72 +8189,52 @@
         <v>1</v>
       </c>
       <c r="L139" s="44">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M139" s="32"/>
     </row>
     <row r="140" spans="1:13" ht="30" customHeight="1">
-      <c r="A140" s="39">
-        <v>135</v>
-      </c>
-      <c r="B140" s="50" t="s">
-        <v>391</v>
-      </c>
-      <c r="C140" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="D140" s="40" t="s">
-        <v>635</v>
-      </c>
-      <c r="E140" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F140" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G140" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="H140" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I140" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J140" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K140" s="32">
-        <v>1</v>
-      </c>
-      <c r="L140" s="44">
-        <v>135</v>
-      </c>
-      <c r="M140" s="62" t="s">
-        <v>634</v>
-      </c>
+      <c r="A140" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="B140" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="36" t="s">
+        <v>401</v>
+      </c>
+      <c r="D140" s="35"/>
+      <c r="E140" s="60"/>
+      <c r="F140" s="35"/>
+      <c r="G140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="J140" s="35"/>
+      <c r="K140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
     </row>
     <row r="141" spans="1:13" ht="30" customHeight="1">
       <c r="A141" s="39">
         <v>136</v>
       </c>
       <c r="B141" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>123</v>
+        <v>629</v>
       </c>
       <c r="D141" s="40" t="s">
-        <v>115</v>
+        <v>629</v>
       </c>
       <c r="E141" s="50" t="s">
-        <v>122</v>
+        <v>630</v>
       </c>
       <c r="F141" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G141" s="32" t="s">
-        <v>122</v>
+        <v>399</v>
+      </c>
+      <c r="G141" s="50" t="s">
+        <v>630</v>
       </c>
       <c r="H141" s="32" t="s">
         <v>16</v>
@@ -8317,31 +8251,29 @@
       <c r="L141" s="44">
         <v>136</v>
       </c>
-      <c r="M141" s="62" t="s">
-        <v>634</v>
-      </c>
+      <c r="M141" s="32"/>
     </row>
     <row r="142" spans="1:13" ht="30" customHeight="1">
       <c r="A142" s="39">
         <v>137</v>
       </c>
       <c r="B142" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="D142" s="40" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="E142" s="50" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="F142" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="H142" s="32" t="s">
         <v>16</v>
@@ -8358,31 +8290,29 @@
       <c r="L142" s="44">
         <v>137</v>
       </c>
-      <c r="M142" s="62" t="s">
-        <v>634</v>
-      </c>
+      <c r="M142" s="32"/>
     </row>
     <row r="143" spans="1:13" ht="30" customHeight="1">
       <c r="A143" s="39">
         <v>138</v>
       </c>
       <c r="B143" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C143" s="40" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="D143" s="40" t="s">
-        <v>386</v>
+        <v>59</v>
       </c>
       <c r="E143" s="50" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="F143" s="32" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="H143" s="32" t="s">
         <v>16</v>
@@ -8399,31 +8329,29 @@
       <c r="L143" s="44">
         <v>138</v>
       </c>
-      <c r="M143" s="62" t="s">
-        <v>634</v>
-      </c>
+      <c r="M143" s="32"/>
     </row>
     <row r="144" spans="1:13" ht="30" customHeight="1">
       <c r="A144" s="39">
         <v>139</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="D144" s="40" t="s">
-        <v>636</v>
+        <v>61</v>
       </c>
       <c r="E144" s="50" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="F144" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="H144" s="32" t="s">
         <v>16</v>
@@ -8440,31 +8368,29 @@
       <c r="L144" s="44">
         <v>139</v>
       </c>
-      <c r="M144" s="62" t="s">
-        <v>634</v>
-      </c>
+      <c r="M144" s="32"/>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1">
       <c r="A145" s="39">
         <v>140</v>
       </c>
       <c r="B145" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="D145" s="40" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="E145" s="50" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="F145" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="H145" s="32" t="s">
         <v>16</v>
@@ -8488,22 +8414,22 @@
         <v>141</v>
       </c>
       <c r="B146" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="D146" s="40" t="s">
-        <v>637</v>
+        <v>65</v>
       </c>
       <c r="E146" s="50" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="F146" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="H146" s="32" t="s">
         <v>16</v>
@@ -8527,22 +8453,22 @@
         <v>142</v>
       </c>
       <c r="B147" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C147" s="40" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="D147" s="40" t="s">
-        <v>638</v>
+        <v>395</v>
       </c>
       <c r="E147" s="50" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="F147" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="H147" s="32" t="s">
         <v>16</v>
@@ -8551,7 +8477,7 @@
         <v>17</v>
       </c>
       <c r="J147" s="43" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K147" s="32">
         <v>1</v>
@@ -8566,22 +8492,22 @@
         <v>143</v>
       </c>
       <c r="B148" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>137</v>
+        <v>69</v>
       </c>
       <c r="D148" s="40" t="s">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="E148" s="50" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="F148" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H148" s="32" t="s">
         <v>16</v>
@@ -8590,7 +8516,7 @@
         <v>17</v>
       </c>
       <c r="J148" s="43" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K148" s="32">
         <v>1</v>
@@ -8605,22 +8531,22 @@
         <v>144</v>
       </c>
       <c r="B149" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>639</v>
+        <v>385</v>
       </c>
       <c r="E149" s="50" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="F149" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="H149" s="32" t="s">
         <v>16</v>
@@ -8629,7 +8555,7 @@
         <v>17</v>
       </c>
       <c r="J149" s="43" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="K149" s="32">
         <v>1</v>
@@ -8644,22 +8570,22 @@
         <v>145</v>
       </c>
       <c r="B150" s="50" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="D150" s="40" t="s">
-        <v>387</v>
+        <v>150</v>
       </c>
       <c r="E150" s="50" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F150" s="32" t="s">
         <v>400</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="H150" s="32" t="s">
         <v>16</v>
@@ -8707,19 +8633,19 @@
         <v>392</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D152" s="40" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E152" s="50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F152" s="32" t="s">
         <v>399</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H152" s="32" t="s">
         <v>16</v>
@@ -8746,19 +8672,19 @@
         <v>392</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D153" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E153" s="50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F153" s="32" t="s">
         <v>399</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H153" s="32" t="s">
         <v>16</v>
@@ -8785,19 +8711,19 @@
         <v>392</v>
       </c>
       <c r="C154" s="40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D154" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E154" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F154" s="32" t="s">
         <v>399</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>16</v>
@@ -8824,19 +8750,19 @@
         <v>392</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D155" s="40" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E155" s="50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F155" s="32" t="s">
         <v>399</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H155" s="32" t="s">
         <v>16</v>
@@ -8863,19 +8789,19 @@
         <v>392</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D156" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E156" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F156" s="32" t="s">
         <v>399</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H156" s="32" t="s">
         <v>16</v>
@@ -8902,19 +8828,19 @@
         <v>392</v>
       </c>
       <c r="C157" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D157" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E157" s="50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F157" s="32" t="s">
         <v>399</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H157" s="32" t="s">
         <v>16</v>
@@ -8940,10 +8866,10 @@
         <v>392</v>
       </c>
       <c r="C158" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D158" s="51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E158" s="50" t="s">
         <v>396</v>
@@ -8979,7 +8905,7 @@
   <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="2" priority="366"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J88 J90:J106 J108:J116 J152:J158 J118:J150">
+  <conditionalFormatting sqref="J152:J158 J90:J106 J108:J150 J3:J88">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -8988,7 +8914,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J106 J3:J88 J152:J158 J108:J116 J118:J150" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J106 J152:J158 J108:J150 J3:J88" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9002,7 +8928,7 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9010,10 +8936,10 @@
     <col min="1" max="1" width="9.44140625" customWidth="1"/>
     <col min="2" max="2" width="37.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="17.21875" customWidth="1"/>
     <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="29.21875" customWidth="1"/>
@@ -9039,25 +8965,25 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="62" t="s">
         <v>158</v>
-      </c>
-      <c r="G1" s="56" t="s">
-        <v>159</v>
       </c>
       <c r="H1" s="56" t="s">
         <v>419</v>
@@ -9161,7 +9087,7 @@
         <v>1234</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="H2" s="46" t="s">
         <v>422</v>
@@ -9250,20 +9176,20 @@
         <v>398</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="46">
-        <v>1019075926</v>
+      <c r="D3" s="46" t="s">
+        <v>627</v>
       </c>
       <c r="E3" s="31" t="s">
+        <v>628</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>631</v>
-      </c>
-      <c r="F3" s="46">
-        <v>1234</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>640</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -9296,12 +9222,14 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{A737B029-2E30-4582-99CE-E9F5DCAE8AFD}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{06C298BD-C40F-460D-A4FE-D2485A124631}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{DC6A965C-4588-4FCF-B922-34DC11AC2FEF}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{6A8FE9DB-0342-4940-B8C4-6F9264892EC4}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{E940DD01-8D91-4D40-9A96-3AA5515426FA}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{6A8FE9DB-0342-4940-B8C4-6F9264892EC4}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{A737B029-2E30-4582-99CE-E9F5DCAE8AFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -9335,7 +9263,7 @@
         <v>216</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>217</v>
@@ -9373,7 +9301,7 @@
         <v>223</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>217</v>
@@ -9487,7 +9415,7 @@
         <v>235</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>217</v>
@@ -9525,7 +9453,7 @@
         <v>238</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>217</v>
@@ -9563,7 +9491,7 @@
         <v>241</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>217</v>
@@ -10912,20 +10840,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="65"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A44" s="12">
@@ -10947,7 +10875,7 @@
         <v>324</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>217</v>
@@ -10985,7 +10913,7 @@
         <v>326</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>217</v>
@@ -11023,7 +10951,7 @@
         <v>328</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>217</v>
@@ -11061,7 +10989,7 @@
         <v>324</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>217</v>
@@ -11099,7 +11027,7 @@
         <v>324</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>217</v>
@@ -11137,7 +11065,7 @@
         <v>326</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>217</v>
@@ -11175,7 +11103,7 @@
         <v>328</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>217</v>
@@ -11213,7 +11141,7 @@
         <v>324</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>217</v>
@@ -11251,7 +11179,7 @@
         <v>324</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>217</v>
@@ -11289,7 +11217,7 @@
         <v>326</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>217</v>
@@ -11327,7 +11255,7 @@
         <v>328</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>217</v>
@@ -11493,16 +11421,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>341</v>
@@ -11786,16 +11714,16 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>374</v>

--- a/src/test/resources/Run_Manager_Full_Auction_Journey.xlsx
+++ b/src/test/resources/Run_Manager_Full_Auction_Journey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\New_Sakani_TST_Git\Sakani_TST_New\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAD9556-B96C-4C04-9246-D13A85945D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EEE4C8-2800-4132-BA3A-29BDD3B5BEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2148" windowWidth="18756" windowHeight="10092" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuiteDetails" sheetId="1" r:id="rId1"/>
@@ -2826,10 +2826,10 @@
   <dimension ref="A1:M158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J145" sqref="J145:J146"/>
+      <selection pane="bottomRight" activeCell="A119" sqref="A119:XFD150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1"/>
@@ -8979,7 +8979,7 @@
   <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="2" priority="366"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J88 J90:J106 J108:J116 J152:J158 J118:J150">
+  <conditionalFormatting sqref="J3:J88 J90:J106 J108:J116 J118:J150 J152:J158">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>

--- a/src/test/resources/Run_Manager_Full_Auction_Journey.xlsx
+++ b/src/test/resources/Run_Manager_Full_Auction_Journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\Sakani_TST_New\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9E499E-65C4-4A62-A64D-8B72F353B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAFB858-E8A7-42AD-AB56-C1D2FD0BF8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="AddCommercialContract-old" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SuiteDetails!$A$1:$L$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SuiteDetails!$A$1:$L$158</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="653">
   <si>
     <t>P_Key</t>
   </si>
@@ -515,9 +515,6 @@
     <t>OTP</t>
   </si>
   <si>
-    <t>Project_Name</t>
-  </si>
-  <si>
     <t>TC_04</t>
   </si>
   <si>
@@ -1199,9 +1196,6 @@
     <t>Verify user is able to click on back button from payment page</t>
   </si>
   <si>
-    <t>Verify user is able to click on view invoice link text</t>
-  </si>
-  <si>
     <t>Verify user is not able to access auction that already Expired/End</t>
   </si>
   <si>
@@ -1928,16 +1922,82 @@
     <t>Aa123456@</t>
   </si>
   <si>
-    <t>Verify admin create auction project with fee</t>
-  </si>
-  <si>
-    <t>Full_Auction_Journey_New_With_Fee</t>
-  </si>
-  <si>
-    <t>Auction Auto Project 08</t>
-  </si>
-  <si>
     <t>Auto Auction Test_</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>Re execute</t>
+  </si>
+  <si>
+    <t>There are no closed auctions</t>
+  </si>
+  <si>
+    <t>Sign contract is not downloaded</t>
+  </si>
+  <si>
+    <t>Verify user is NOT able to click Confirm Rejection button if reject reason is not entered from  Reject Contract page</t>
+  </si>
+  <si>
+    <t>Need to execute later</t>
+  </si>
+  <si>
+    <t>Create new Auction without fee from admin side</t>
+  </si>
+  <si>
+    <t>User bid the new auction</t>
+  </si>
+  <si>
+    <t>Verify the Sign Contract is Approved</t>
+  </si>
+  <si>
+    <t>Verify user is able to click on view invoice button</t>
+  </si>
+  <si>
+    <t>Verify user is able to click on view Acknowledgment link text</t>
+  </si>
+  <si>
+    <t>Expired_Auction</t>
+  </si>
+  <si>
+    <t>Mazad 00</t>
+  </si>
+  <si>
+    <t>Verify auction status dropdown is accessible and selectable by the admin</t>
+  </si>
+  <si>
+    <t>Verify Search button is clickable when auction status is selected</t>
+  </si>
+  <si>
+    <t>Full_Auction_Journey_TC_109</t>
+  </si>
+  <si>
+    <t>Full_Auction_Journey_TC_110</t>
+  </si>
+  <si>
+    <t>Not feasible with new flow</t>
+  </si>
+  <si>
+    <t>Full_Auction_Journey_New_Without_Fee</t>
+  </si>
+  <si>
+    <t>Verify admin create auction project without fee</t>
+  </si>
+  <si>
+    <t>No feasble for new flow</t>
+  </si>
+  <si>
+    <t>Verify user is able to see Auction option from Marketplace               </t>
+  </si>
+  <si>
+    <t>Verify user is able to select on Auction option from Marketplace               </t>
+  </si>
+  <si>
+    <t>ProjectName</t>
   </si>
 </sst>
 </file>
@@ -2263,7 +2323,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2395,6 +2455,27 @@
     <xf numFmtId="0" fontId="11" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2410,7 +2491,35 @@
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFBCE997"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9393"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFBCE997"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2787,21 +2896,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M158"/>
+  <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D152" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12:J15"/>
+      <selection pane="bottomRight" activeCell="J108" sqref="J108:J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="141.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.109375" style="2" bestFit="1" customWidth="1"/>
@@ -2863,7 +2972,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="59" t="s">
@@ -2891,22 +3000,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H3" s="32" t="s">
         <v>16</v>
@@ -2930,22 +3039,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H4" s="32" t="s">
         <v>16</v>
@@ -2969,22 +3078,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H5" s="32" t="s">
         <v>16</v>
@@ -3008,22 +3117,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>16</v>
@@ -3047,22 +3156,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H7" s="32" t="s">
         <v>16</v>
@@ -3086,22 +3195,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H8" s="32" t="s">
         <v>16</v>
@@ -3125,7 +3234,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C9" s="40" t="s">
         <v>19</v>
@@ -3134,13 +3243,13 @@
         <v>19</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H9" s="32" t="s">
         <v>16</v>
@@ -3164,7 +3273,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C10" s="40" t="s">
         <v>20</v>
@@ -3173,13 +3282,13 @@
         <v>20</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H10" s="32" t="s">
         <v>16</v>
@@ -3203,7 +3312,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C11" s="40" t="s">
         <v>21</v>
@@ -3212,13 +3321,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H11" s="32" t="s">
         <v>16</v>
@@ -3242,22 +3351,22 @@
         <v>10</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H12" s="32" t="s">
         <v>16</v>
@@ -3281,22 +3390,22 @@
         <v>11</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H13" s="32" t="s">
         <v>16</v>
@@ -3320,22 +3429,22 @@
         <v>12</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H14" s="32" t="s">
         <v>16</v>
@@ -3359,22 +3468,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H15" s="32" t="s">
         <v>16</v>
@@ -3398,22 +3507,22 @@
         <v>14</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H16" s="32" t="s">
         <v>16</v>
@@ -3437,22 +3546,22 @@
         <v>15</v>
       </c>
       <c r="B17" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="H17" s="32" t="s">
         <v>16</v>
@@ -3476,22 +3585,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H18" s="32" t="s">
         <v>16</v>
@@ -3515,22 +3624,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H19" s="32" t="s">
         <v>16</v>
@@ -3554,22 +3663,22 @@
         <v>18</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H20" s="32" t="s">
         <v>16</v>
@@ -3593,22 +3702,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H21" s="32" t="s">
         <v>16</v>
@@ -3632,22 +3741,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H22" s="32" t="s">
         <v>16</v>
@@ -3671,22 +3780,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H23" s="32" t="s">
         <v>16</v>
@@ -3710,22 +3819,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H24" s="32" t="s">
         <v>16</v>
@@ -3749,22 +3858,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H25" s="32" t="s">
         <v>16</v>
@@ -3788,22 +3897,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H26" s="32" t="s">
         <v>16</v>
@@ -3827,22 +3936,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H27" s="32" t="s">
         <v>16</v>
@@ -3866,22 +3975,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H28" s="32" t="s">
         <v>16</v>
@@ -3905,22 +4014,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D29" s="40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H29" s="32" t="s">
         <v>16</v>
@@ -3944,22 +4053,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H30" s="32" t="s">
         <v>16</v>
@@ -3983,22 +4092,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D31" s="40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="H31" s="32" t="s">
         <v>16</v>
@@ -4022,22 +4131,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H32" s="32" t="s">
         <v>16</v>
@@ -4061,22 +4170,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D33" s="40" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H33" s="32" t="s">
         <v>16</v>
@@ -4100,22 +4209,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H34" s="32" t="s">
         <v>16</v>
@@ -4139,22 +4248,22 @@
         <v>33</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H35" s="32" t="s">
         <v>16</v>
@@ -4178,22 +4287,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H36" s="32" t="s">
         <v>16</v>
@@ -4217,22 +4326,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H37" s="32" t="s">
         <v>16</v>
@@ -4256,22 +4365,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="H38" s="32" t="s">
         <v>16</v>
@@ -4295,22 +4404,22 @@
         <v>37</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D39" s="40" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="H39" s="32" t="s">
         <v>16</v>
@@ -4334,22 +4443,22 @@
         <v>38</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H40" s="32" t="s">
         <v>16</v>
@@ -4373,22 +4482,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D41" s="40" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="H41" s="32" t="s">
         <v>16</v>
@@ -4412,22 +4521,22 @@
         <v>40</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H42" s="32" t="s">
         <v>16</v>
@@ -4451,22 +4560,22 @@
         <v>41</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D43" s="40" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H43" s="32" t="s">
         <v>16</v>
@@ -4490,22 +4599,22 @@
         <v>42</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H44" s="32" t="s">
         <v>16</v>
@@ -4529,22 +4638,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H45" s="32" t="s">
         <v>16</v>
@@ -4568,22 +4677,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H46" s="32" t="s">
         <v>16</v>
@@ -4607,22 +4716,22 @@
         <v>45</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D47" s="40" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H47" s="32" t="s">
         <v>16</v>
@@ -4646,22 +4755,22 @@
         <v>46</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H48" s="32" t="s">
         <v>16</v>
@@ -4685,22 +4794,22 @@
         <v>47</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H49" s="32" t="s">
         <v>16</v>
@@ -4724,22 +4833,22 @@
         <v>48</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H50" s="32" t="s">
         <v>16</v>
@@ -4763,22 +4872,22 @@
         <v>49</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H51" s="32" t="s">
         <v>16</v>
@@ -4802,22 +4911,22 @@
         <v>50</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H52" s="32" t="s">
         <v>16</v>
@@ -4841,22 +4950,22 @@
         <v>51</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>16</v>
@@ -4880,22 +4989,22 @@
         <v>52</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H54" s="32" t="s">
         <v>16</v>
@@ -4919,22 +5028,22 @@
         <v>53</v>
       </c>
       <c r="B55" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C55" s="40" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D55" s="40" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H55" s="32" t="s">
         <v>16</v>
@@ -4958,22 +5067,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H56" s="32" t="s">
         <v>16</v>
@@ -4997,22 +5106,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D57" s="40" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H57" s="32" t="s">
         <v>16</v>
@@ -5036,22 +5145,22 @@
         <v>56</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H58" s="32" t="s">
         <v>16</v>
@@ -5075,22 +5184,22 @@
         <v>57</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D59" s="40" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="H59" s="32" t="s">
         <v>16</v>
@@ -5114,22 +5223,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H60" s="32" t="s">
         <v>16</v>
@@ -5153,22 +5262,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C61" s="40" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D61" s="40" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H61" s="32" t="s">
         <v>16</v>
@@ -5192,22 +5301,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H62" s="32" t="s">
         <v>16</v>
@@ -5231,22 +5340,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D63" s="40" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F63" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H63" s="32" t="s">
         <v>16</v>
@@ -5270,22 +5379,22 @@
         <v>62</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D64" s="40" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E64" s="50" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H64" s="32" t="s">
         <v>16</v>
@@ -5309,22 +5418,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D65" s="40" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="H65" s="32" t="s">
         <v>16</v>
@@ -5348,22 +5457,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D66" s="40" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="H66" s="32" t="s">
         <v>16</v>
@@ -5387,22 +5496,22 @@
         <v>65</v>
       </c>
       <c r="B67" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D67" s="40" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H67" s="32" t="s">
         <v>16</v>
@@ -5426,22 +5535,22 @@
         <v>66</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D68" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H68" s="32" t="s">
         <v>16</v>
@@ -5465,22 +5574,22 @@
         <v>67</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D69" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H69" s="32" t="s">
         <v>16</v>
@@ -5504,22 +5613,22 @@
         <v>68</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D70" s="40" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E70" s="50" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H70" s="32" t="s">
         <v>16</v>
@@ -5543,22 +5652,22 @@
         <v>69</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H71" s="32" t="s">
         <v>16</v>
@@ -5582,22 +5691,22 @@
         <v>70</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D72" s="40" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E72" s="50" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H72" s="32" t="s">
         <v>16</v>
@@ -5621,22 +5730,22 @@
         <v>71</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E73" s="50" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="H73" s="32" t="s">
         <v>16</v>
@@ -5660,22 +5769,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H74" s="32" t="s">
         <v>16</v>
@@ -5699,22 +5808,22 @@
         <v>73</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E75" s="50" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F75" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H75" s="32" t="s">
         <v>16</v>
@@ -5738,22 +5847,22 @@
         <v>74</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E76" s="50" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F76" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H76" s="32" t="s">
         <v>16</v>
@@ -5777,22 +5886,22 @@
         <v>75</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D77" s="40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H77" s="32" t="s">
         <v>16</v>
@@ -5816,22 +5925,22 @@
         <v>76</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H78" s="32" t="s">
         <v>16</v>
@@ -5855,22 +5964,22 @@
         <v>77</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D79" s="40" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E79" s="50" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H79" s="32" t="s">
         <v>16</v>
@@ -5894,22 +6003,22 @@
         <v>78</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D80" s="40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E80" s="50" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H80" s="32" t="s">
         <v>16</v>
@@ -5933,22 +6042,22 @@
         <v>79</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D81" s="40" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H81" s="32" t="s">
         <v>16</v>
@@ -5972,22 +6081,22 @@
         <v>80</v>
       </c>
       <c r="B82" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D82" s="40" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E82" s="50" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F82" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H82" s="32" t="s">
         <v>16</v>
@@ -6011,22 +6120,22 @@
         <v>81</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D83" s="40" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E83" s="50" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F83" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="H83" s="32" t="s">
         <v>16</v>
@@ -6050,22 +6159,22 @@
         <v>82</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D84" s="40" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E84" s="50" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F84" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H84" s="32" t="s">
         <v>16</v>
@@ -6089,22 +6198,22 @@
         <v>83</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D85" s="40" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E85" s="50" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F85" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="H85" s="32" t="s">
         <v>16</v>
@@ -6128,22 +6237,22 @@
         <v>84</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D86" s="40" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E86" s="50" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F86" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H86" s="32" t="s">
         <v>16</v>
@@ -6167,22 +6276,22 @@
         <v>85</v>
       </c>
       <c r="B87" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D87" s="40" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E87" s="50" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F87" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H87" s="32" t="s">
         <v>16</v>
@@ -6206,22 +6315,22 @@
         <v>86</v>
       </c>
       <c r="B88" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D88" s="40" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E88" s="50" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F88" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H88" s="32" t="s">
         <v>16</v>
@@ -6242,13 +6351,13 @@
     </row>
     <row r="89" spans="1:13" ht="30" customHeight="1">
       <c r="A89" s="55" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B89" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="60"/>
@@ -6266,19 +6375,19 @@
         <v>87</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>22</v>
       </c>
       <c r="D90" s="40" t="s">
-        <v>22</v>
+        <v>650</v>
       </c>
       <c r="E90" s="50" t="s">
         <v>23</v>
       </c>
       <c r="F90" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G90" s="32" t="s">
         <v>23</v>
@@ -6305,19 +6414,19 @@
         <v>88</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C91" s="40" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="40" t="s">
-        <v>24</v>
+        <v>651</v>
       </c>
       <c r="E91" s="50" t="s">
         <v>25</v>
       </c>
       <c r="F91" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G91" s="32" t="s">
         <v>25</v>
@@ -6344,19 +6453,19 @@
         <v>89</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="40" t="s">
+      <c r="D92" s="64" t="s">
         <v>26</v>
       </c>
       <c r="E92" s="50" t="s">
         <v>27</v>
       </c>
       <c r="F92" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G92" s="32" t="s">
         <v>27</v>
@@ -6376,26 +6485,28 @@
       <c r="L92" s="44">
         <v>89</v>
       </c>
-      <c r="M92" s="32"/>
+      <c r="M92" s="32" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="93" spans="1:13" ht="30" customHeight="1">
       <c r="A93" s="39">
         <v>90</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C93" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="40" t="s">
+      <c r="D93" s="64" t="s">
         <v>28</v>
       </c>
       <c r="E93" s="50" t="s">
         <v>29</v>
       </c>
       <c r="F93" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G93" s="32" t="s">
         <v>29</v>
@@ -6415,26 +6526,28 @@
       <c r="L93" s="44">
         <v>90</v>
       </c>
-      <c r="M93" s="32"/>
+      <c r="M93" s="32" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="94" spans="1:13" ht="30" customHeight="1">
       <c r="A94" s="39">
         <v>91</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C94" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D94" s="40" t="s">
+      <c r="D94" s="64" t="s">
         <v>30</v>
       </c>
       <c r="E94" s="50" t="s">
         <v>31</v>
       </c>
       <c r="F94" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G94" s="32" t="s">
         <v>31</v>
@@ -6454,14 +6567,16 @@
       <c r="L94" s="44">
         <v>91</v>
       </c>
-      <c r="M94" s="32"/>
+      <c r="M94" s="32" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="95" spans="1:13" ht="30" customHeight="1">
       <c r="A95" s="39">
         <v>92</v>
       </c>
       <c r="B95" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C95" s="40" t="s">
         <v>32</v>
@@ -6473,7 +6588,7 @@
         <v>33</v>
       </c>
       <c r="F95" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G95" s="32" t="s">
         <v>33</v>
@@ -6500,7 +6615,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C96" s="40" t="s">
         <v>34</v>
@@ -6512,7 +6627,7 @@
         <v>35</v>
       </c>
       <c r="F96" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G96" s="32" t="s">
         <v>35</v>
@@ -6539,7 +6654,7 @@
         <v>94</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C97" s="40" t="s">
         <v>36</v>
@@ -6551,7 +6666,7 @@
         <v>37</v>
       </c>
       <c r="F97" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G97" s="32" t="s">
         <v>37</v>
@@ -6578,7 +6693,7 @@
         <v>95</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C98" s="40" t="s">
         <v>38</v>
@@ -6590,7 +6705,7 @@
         <v>39</v>
       </c>
       <c r="F98" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G98" s="32" t="s">
         <v>39</v>
@@ -6617,7 +6732,7 @@
         <v>96</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C99" s="40" t="s">
         <v>40</v>
@@ -6629,7 +6744,7 @@
         <v>41</v>
       </c>
       <c r="F99" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G99" s="32" t="s">
         <v>41</v>
@@ -6656,7 +6771,7 @@
         <v>97</v>
       </c>
       <c r="B100" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C100" s="40" t="s">
         <v>42</v>
@@ -6668,7 +6783,7 @@
         <v>43</v>
       </c>
       <c r="F100" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G100" s="32" t="s">
         <v>43</v>
@@ -6695,7 +6810,7 @@
         <v>98</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C101" s="40" t="s">
         <v>44</v>
@@ -6707,7 +6822,7 @@
         <v>45</v>
       </c>
       <c r="F101" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G101" s="32" t="s">
         <v>45</v>
@@ -6734,7 +6849,7 @@
         <v>99</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C102" s="40" t="s">
         <v>46</v>
@@ -6746,7 +6861,7 @@
         <v>47</v>
       </c>
       <c r="F102" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G102" s="32" t="s">
         <v>47</v>
@@ -6773,7 +6888,7 @@
         <v>100</v>
       </c>
       <c r="B103" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C103" s="40" t="s">
         <v>48</v>
@@ -6785,7 +6900,7 @@
         <v>49</v>
       </c>
       <c r="F103" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G103" s="32" t="s">
         <v>49</v>
@@ -6805,14 +6920,16 @@
       <c r="L103" s="44">
         <v>100</v>
       </c>
-      <c r="M103" s="32"/>
+      <c r="M103" s="32" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="104" spans="1:13" ht="30" customHeight="1">
       <c r="A104" s="39">
         <v>101</v>
       </c>
       <c r="B104" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C104" s="40" t="s">
         <v>50</v>
@@ -6824,7 +6941,7 @@
         <v>51</v>
       </c>
       <c r="F104" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G104" s="32" t="s">
         <v>51</v>
@@ -6851,7 +6968,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C105" s="40" t="s">
         <v>53</v>
@@ -6863,7 +6980,7 @@
         <v>54</v>
       </c>
       <c r="F105" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G105" s="32" t="s">
         <v>54</v>
@@ -6883,14 +7000,16 @@
       <c r="L105" s="44">
         <v>102</v>
       </c>
-      <c r="M105" s="32"/>
+      <c r="M105" s="32" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="106" spans="1:13" ht="30" customHeight="1">
       <c r="A106" s="39">
         <v>103</v>
       </c>
       <c r="B106" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C106" s="40" t="s">
         <v>55</v>
@@ -6902,7 +7021,7 @@
         <v>56</v>
       </c>
       <c r="F106" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G106" s="32" t="s">
         <v>56</v>
@@ -6926,13 +7045,13 @@
     </row>
     <row r="107" spans="1:13" ht="30" customHeight="1">
       <c r="A107" s="55" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B107" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D107" s="35"/>
       <c r="E107" s="60"/>
@@ -6950,22 +7069,22 @@
         <v>104</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D108" s="40" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E108" s="50" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F108" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="H108" s="32" t="s">
         <v>16</v>
@@ -6974,7 +7093,7 @@
         <v>17</v>
       </c>
       <c r="J108" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K108" s="32">
         <v>1</v>
@@ -6982,29 +7101,31 @@
       <c r="L108" s="44">
         <v>104</v>
       </c>
-      <c r="M108" s="32"/>
+      <c r="M108" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="109" spans="1:13" ht="30" customHeight="1">
       <c r="A109" s="39">
         <v>105</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C109" s="40" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D109" s="40" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E109" s="50" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F109" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H109" s="32" t="s">
         <v>16</v>
@@ -7013,7 +7134,7 @@
         <v>17</v>
       </c>
       <c r="J109" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K109" s="32">
         <v>1</v>
@@ -7021,29 +7142,31 @@
       <c r="L109" s="44">
         <v>105</v>
       </c>
-      <c r="M109" s="32"/>
+      <c r="M109" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="110" spans="1:13" ht="30" customHeight="1">
       <c r="A110" s="39">
         <v>106</v>
       </c>
       <c r="B110" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C110" s="40" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D110" s="40" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E110" s="50" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F110" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H110" s="32" t="s">
         <v>16</v>
@@ -7052,7 +7175,7 @@
         <v>17</v>
       </c>
       <c r="J110" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K110" s="32">
         <v>1</v>
@@ -7060,29 +7183,31 @@
       <c r="L110" s="44">
         <v>106</v>
       </c>
-      <c r="M110" s="32"/>
+      <c r="M110" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1">
       <c r="A111" s="39">
         <v>107</v>
       </c>
       <c r="B111" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D111" s="40" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E111" s="50" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F111" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="H111" s="32" t="s">
         <v>16</v>
@@ -7091,7 +7216,7 @@
         <v>17</v>
       </c>
       <c r="J111" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K111" s="32">
         <v>1</v>
@@ -7099,29 +7224,31 @@
       <c r="L111" s="44">
         <v>107</v>
       </c>
-      <c r="M111" s="32"/>
+      <c r="M111" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="112" spans="1:13" ht="30" customHeight="1">
       <c r="A112" s="39">
         <v>108</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D112" s="40" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E112" s="50" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F112" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H112" s="32" t="s">
         <v>16</v>
@@ -7130,7 +7257,7 @@
         <v>17</v>
       </c>
       <c r="J112" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K112" s="32">
         <v>1</v>
@@ -7138,29 +7265,31 @@
       <c r="L112" s="44">
         <v>108</v>
       </c>
-      <c r="M112" s="32"/>
+      <c r="M112" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="113" spans="1:13" ht="30" customHeight="1">
       <c r="A113" s="39">
         <v>109</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D113" s="40" t="s">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="E113" s="50" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F113" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="H113" s="32" t="s">
         <v>16</v>
@@ -7169,7 +7298,7 @@
         <v>17</v>
       </c>
       <c r="J113" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K113" s="32">
         <v>1</v>
@@ -7177,29 +7306,31 @@
       <c r="L113" s="44">
         <v>109</v>
       </c>
-      <c r="M113" s="32"/>
+      <c r="M113" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="114" spans="1:13" ht="30" customHeight="1">
       <c r="A114" s="39">
         <v>110</v>
       </c>
       <c r="B114" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D114" s="40" t="s">
-        <v>82</v>
+        <v>383</v>
       </c>
       <c r="E114" s="50" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F114" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="H114" s="32" t="s">
         <v>16</v>
@@ -7208,7 +7339,7 @@
         <v>17</v>
       </c>
       <c r="J114" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K114" s="32">
         <v>1</v>
@@ -7216,29 +7347,31 @@
       <c r="L114" s="44">
         <v>110</v>
       </c>
-      <c r="M114" s="32"/>
+      <c r="M114" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="115" spans="1:13" ht="30" customHeight="1">
       <c r="A115" s="39">
         <v>111</v>
       </c>
       <c r="B115" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D115" s="40" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
       <c r="E115" s="50" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="F115" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H115" s="32" t="s">
         <v>16</v>
@@ -7247,7 +7380,7 @@
         <v>17</v>
       </c>
       <c r="J115" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K115" s="32">
         <v>1</v>
@@ -7255,29 +7388,31 @@
       <c r="L115" s="44">
         <v>111</v>
       </c>
-      <c r="M115" s="32"/>
+      <c r="M115" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="116" spans="1:13" ht="30" customHeight="1">
       <c r="A116" s="39">
         <v>112</v>
       </c>
       <c r="B116" s="50" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D116" s="40" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="E116" s="50" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="F116" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="H116" s="32" t="s">
         <v>16</v>
@@ -7286,7 +7421,7 @@
         <v>17</v>
       </c>
       <c r="J116" s="43" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="K116" s="32">
         <v>1</v>
@@ -7294,107 +7429,91 @@
       <c r="L116" s="44">
         <v>112</v>
       </c>
-      <c r="M116" s="32"/>
+      <c r="M116" s="32" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="117" spans="1:13" ht="30" customHeight="1">
-      <c r="A117" s="39">
+      <c r="A117" s="55" t="s">
+        <v>387</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D117" s="35"/>
+      <c r="E117" s="60"/>
+      <c r="F117" s="35"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="35"/>
+      <c r="K117" s="35"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
+    </row>
+    <row r="118" spans="1:13" s="8" customFormat="1" ht="30" customHeight="1">
+      <c r="A118" s="39">
         <v>113</v>
       </c>
-      <c r="B117" s="50" t="s">
-        <v>391</v>
-      </c>
-      <c r="C117" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D117" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E117" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F117" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G117" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="H117" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I117" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J117" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K117" s="32">
-        <v>1</v>
-      </c>
-      <c r="L117" s="44">
+      <c r="B118" s="65" t="s">
+        <v>399</v>
+      </c>
+      <c r="C118" s="66" t="s">
+        <v>648</v>
+      </c>
+      <c r="D118" s="66" t="s">
+        <v>648</v>
+      </c>
+      <c r="E118" s="65" t="s">
+        <v>647</v>
+      </c>
+      <c r="F118" s="67" t="s">
+        <v>397</v>
+      </c>
+      <c r="G118" s="65" t="s">
+        <v>647</v>
+      </c>
+      <c r="H118" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="67">
+        <v>1</v>
+      </c>
+      <c r="L118" s="68">
         <v>113</v>
       </c>
-      <c r="M117" s="32"/>
-    </row>
-    <row r="118" spans="1:13" ht="30" customHeight="1">
-      <c r="A118" s="39">
-        <v>114</v>
-      </c>
-      <c r="B118" s="50" t="s">
-        <v>391</v>
-      </c>
-      <c r="C118" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D118" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E118" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F118" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G118" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="H118" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I118" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J118" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K118" s="32">
-        <v>1</v>
-      </c>
-      <c r="L118" s="44">
-        <v>114</v>
-      </c>
-      <c r="M118" s="32"/>
+      <c r="M118" s="67"/>
     </row>
     <row r="119" spans="1:13" ht="30" customHeight="1">
       <c r="A119" s="39">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B119" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D119" s="40" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="E119" s="50" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="F119" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G119" s="32" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H119" s="32" t="s">
         <v>16</v>
@@ -7402,38 +7521,38 @@
       <c r="I119" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J119" s="43" t="s">
+      <c r="J119" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K119" s="32">
         <v>1</v>
       </c>
       <c r="L119" s="44">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M119" s="32"/>
     </row>
     <row r="120" spans="1:13" ht="30" customHeight="1">
       <c r="A120" s="39">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B120" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D120" s="40" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E120" s="50" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="F120" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="H120" s="32" t="s">
         <v>16</v>
@@ -7441,38 +7560,38 @@
       <c r="I120" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J120" s="43" t="s">
+      <c r="J120" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K120" s="32">
         <v>1</v>
       </c>
       <c r="L120" s="44">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M120" s="32"/>
     </row>
     <row r="121" spans="1:13" ht="30" customHeight="1">
       <c r="A121" s="39">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D121" s="40" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E121" s="50" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="F121" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H121" s="32" t="s">
         <v>16</v>
@@ -7480,38 +7599,38 @@
       <c r="I121" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J121" s="43" t="s">
+      <c r="J121" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K121" s="32">
         <v>1</v>
       </c>
       <c r="L121" s="44">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M121" s="32"/>
     </row>
     <row r="122" spans="1:13" ht="30" customHeight="1">
       <c r="A122" s="39">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C122" s="40" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="D122" s="40" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E122" s="50" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F122" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="H122" s="32" t="s">
         <v>16</v>
@@ -7519,38 +7638,38 @@
       <c r="I122" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="43" t="s">
+      <c r="J122" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K122" s="32">
         <v>1</v>
       </c>
       <c r="L122" s="44">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M122" s="32"/>
     </row>
     <row r="123" spans="1:13" ht="30" customHeight="1">
       <c r="A123" s="39">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="E123" s="50" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="F123" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="H123" s="32" t="s">
         <v>16</v>
@@ -7558,38 +7677,38 @@
       <c r="I123" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J123" s="43" t="s">
+      <c r="J123" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K123" s="32">
         <v>1</v>
       </c>
       <c r="L123" s="44">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M123" s="32"/>
     </row>
     <row r="124" spans="1:13" ht="30" customHeight="1">
       <c r="A124" s="39">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B124" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C124" s="40" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D124" s="40" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="E124" s="50" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="F124" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="H124" s="32" t="s">
         <v>16</v>
@@ -7597,38 +7716,38 @@
       <c r="I124" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J124" s="43" t="s">
+      <c r="J124" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K124" s="32">
         <v>1</v>
       </c>
       <c r="L124" s="44">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M124" s="32"/>
     </row>
     <row r="125" spans="1:13" ht="30" customHeight="1">
       <c r="A125" s="39">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C125" s="40" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D125" s="40" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E125" s="50" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="F125" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H125" s="32" t="s">
         <v>16</v>
@@ -7636,38 +7755,38 @@
       <c r="I125" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J125" s="43" t="s">
+      <c r="J125" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K125" s="32">
         <v>1</v>
       </c>
       <c r="L125" s="44">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M125" s="32"/>
     </row>
     <row r="126" spans="1:13" ht="30" customHeight="1">
       <c r="A126" s="39">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B126" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="D126" s="40" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E126" s="50" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="F126" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H126" s="32" t="s">
         <v>16</v>
@@ -7675,38 +7794,38 @@
       <c r="I126" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="43" t="s">
+      <c r="J126" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K126" s="32">
         <v>1</v>
       </c>
       <c r="L126" s="44">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M126" s="32"/>
     </row>
     <row r="127" spans="1:13" ht="30" customHeight="1">
       <c r="A127" s="39">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B127" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C127" s="40" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D127" s="40" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="E127" s="50" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="F127" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="H127" s="32" t="s">
         <v>16</v>
@@ -7714,38 +7833,38 @@
       <c r="I127" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J127" s="43" t="s">
+      <c r="J127" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K127" s="32">
         <v>1</v>
       </c>
       <c r="L127" s="44">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M127" s="32"/>
     </row>
     <row r="128" spans="1:13" ht="30" customHeight="1">
       <c r="A128" s="39">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B128" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C128" s="40" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D128" s="40" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E128" s="50" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F128" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="H128" s="32" t="s">
         <v>16</v>
@@ -7753,38 +7872,38 @@
       <c r="I128" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J128" s="43" t="s">
+      <c r="J128" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K128" s="32">
         <v>1</v>
       </c>
       <c r="L128" s="44">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M128" s="32"/>
     </row>
     <row r="129" spans="1:13" ht="30" customHeight="1">
       <c r="A129" s="39">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B129" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D129" s="40" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="F129" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="H129" s="32" t="s">
         <v>16</v>
@@ -7792,38 +7911,38 @@
       <c r="I129" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J129" s="43" t="s">
+      <c r="J129" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K129" s="32">
         <v>1</v>
       </c>
       <c r="L129" s="44">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M129" s="32"/>
     </row>
     <row r="130" spans="1:13" ht="30" customHeight="1">
       <c r="A130" s="39">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B130" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F130" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="H130" s="32" t="s">
         <v>16</v>
@@ -7831,38 +7950,40 @@
       <c r="I130" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J130" s="43" t="s">
+      <c r="J130" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K130" s="32">
         <v>1</v>
       </c>
       <c r="L130" s="44">
-        <v>126</v>
-      </c>
-      <c r="M130" s="32"/>
+        <v>125</v>
+      </c>
+      <c r="M130" s="63" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="131" spans="1:13" ht="30" customHeight="1">
       <c r="A131" s="39">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B131" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D131" s="40" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E131" s="50" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F131" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G131" s="32" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="H131" s="32" t="s">
         <v>16</v>
@@ -7870,38 +7991,38 @@
       <c r="I131" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J131" s="43" t="s">
+      <c r="J131" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K131" s="32">
         <v>1</v>
       </c>
       <c r="L131" s="44">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M131" s="32"/>
     </row>
     <row r="132" spans="1:13" ht="30" customHeight="1">
       <c r="A132" s="39">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B132" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C132" s="40" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D132" s="40" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="E132" s="50" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F132" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="H132" s="32" t="s">
         <v>16</v>
@@ -7909,116 +8030,118 @@
       <c r="I132" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J132" s="43" t="s">
+      <c r="J132" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K132" s="32">
         <v>1</v>
       </c>
       <c r="L132" s="44">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M132" s="32"/>
     </row>
     <row r="133" spans="1:13" ht="30" customHeight="1">
       <c r="A133" s="39">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B133" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C133" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D133" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G133" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H133" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K133" s="32">
+        <v>1</v>
+      </c>
+      <c r="L133" s="44">
         <v>128</v>
       </c>
-      <c r="D133" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="E133" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="F133" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G133" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="H133" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I133" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J133" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K133" s="32">
-        <v>1</v>
-      </c>
-      <c r="L133" s="44">
-        <v>129</v>
-      </c>
-      <c r="M133" s="32"/>
+      <c r="M133" s="63" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="134" spans="1:13" ht="30" customHeight="1">
       <c r="A134" s="39">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B134" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C134" s="40" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D134" s="40" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="E134" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="F134" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H134" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K134" s="32">
+        <v>1</v>
+      </c>
+      <c r="L134" s="44">
         <v>129</v>
-      </c>
-      <c r="F134" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G134" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H134" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I134" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J134" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K134" s="32">
-        <v>1</v>
-      </c>
-      <c r="L134" s="44">
-        <v>130</v>
       </c>
       <c r="M134" s="32"/>
     </row>
     <row r="135" spans="1:13" ht="30" customHeight="1">
       <c r="A135" s="39">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B135" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D135" s="40" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="E135" s="50" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F135" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="H135" s="32" t="s">
         <v>16</v>
@@ -8026,38 +8149,38 @@
       <c r="I135" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J135" s="43" t="s">
+      <c r="J135" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K135" s="32">
         <v>1</v>
       </c>
       <c r="L135" s="44">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M135" s="32"/>
     </row>
     <row r="136" spans="1:13" ht="30" customHeight="1">
       <c r="A136" s="39">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B136" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D136" s="40" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="E136" s="50" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F136" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H136" s="32" t="s">
         <v>16</v>
@@ -8065,38 +8188,40 @@
       <c r="I136" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J136" s="43" t="s">
+      <c r="J136" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K136" s="32">
         <v>1</v>
       </c>
       <c r="L136" s="44">
-        <v>132</v>
-      </c>
-      <c r="M136" s="32"/>
+        <v>131</v>
+      </c>
+      <c r="M136" s="63" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="137" spans="1:13" ht="30" customHeight="1">
       <c r="A137" s="39">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B137" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="D137" s="40" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F137" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H137" s="32" t="s">
         <v>16</v>
@@ -8104,38 +8229,38 @@
       <c r="I137" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J137" s="43" t="s">
+      <c r="J137" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K137" s="32">
         <v>1</v>
       </c>
       <c r="L137" s="44">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M137" s="32"/>
     </row>
     <row r="138" spans="1:13" ht="30" customHeight="1">
       <c r="A138" s="39">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B138" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D138" s="40" t="s">
-        <v>386</v>
+        <v>110</v>
       </c>
       <c r="E138" s="50" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="F138" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G138" s="32" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H138" s="32" t="s">
         <v>16</v>
@@ -8143,98 +8268,118 @@
       <c r="I138" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J138" s="43" t="s">
+      <c r="J138" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K138" s="32">
         <v>1</v>
       </c>
       <c r="L138" s="44">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M138" s="32"/>
     </row>
     <row r="139" spans="1:13" ht="30" customHeight="1">
       <c r="A139" s="39">
+        <v>134</v>
+      </c>
+      <c r="B139" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D139" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E139" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F139" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G139" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="H139" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I139" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J139" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K139" s="32">
+        <v>1</v>
+      </c>
+      <c r="L139" s="44">
+        <v>134</v>
+      </c>
+      <c r="M139" s="32"/>
+    </row>
+    <row r="140" spans="1:13" ht="30" customHeight="1">
+      <c r="A140" s="39">
         <v>135</v>
       </c>
-      <c r="B139" s="50" t="s">
-        <v>391</v>
-      </c>
-      <c r="C139" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="D139" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="E139" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="F139" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="G139" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="H139" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I139" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J139" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K139" s="32">
-        <v>1</v>
-      </c>
-      <c r="L139" s="44">
+      <c r="B140" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D140" s="40" t="s">
+        <v>633</v>
+      </c>
+      <c r="E140" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="F140" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G140" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H140" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J140" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="K140" s="32">
+        <v>1</v>
+      </c>
+      <c r="L140" s="44">
         <v>135</v>
       </c>
-      <c r="M139" s="32"/>
-    </row>
-    <row r="140" spans="1:13" ht="30" customHeight="1">
-      <c r="A140" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="B140" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C140" s="36" t="s">
-        <v>401</v>
-      </c>
-      <c r="D140" s="35"/>
-      <c r="E140" s="60"/>
-      <c r="F140" s="35"/>
-      <c r="G140" s="35"/>
-      <c r="H140" s="35"/>
-      <c r="I140" s="35"/>
-      <c r="J140" s="35"/>
-      <c r="K140" s="35"/>
-      <c r="L140" s="35"/>
-      <c r="M140" s="35"/>
+      <c r="M140" s="63" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="141" spans="1:13" ht="30" customHeight="1">
       <c r="A141" s="39">
         <v>136</v>
       </c>
       <c r="B141" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C141" s="40" t="s">
-        <v>629</v>
+        <v>122</v>
       </c>
       <c r="D141" s="40" t="s">
-        <v>629</v>
+        <v>114</v>
       </c>
       <c r="E141" s="50" t="s">
-        <v>630</v>
+        <v>121</v>
       </c>
       <c r="F141" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="G141" s="50" t="s">
-        <v>630</v>
+        <v>398</v>
+      </c>
+      <c r="G141" s="32" t="s">
+        <v>121</v>
       </c>
       <c r="H141" s="32" t="s">
         <v>16</v>
@@ -8242,7 +8387,7 @@
       <c r="I141" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J141" s="43" t="s">
+      <c r="J141" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K141" s="32">
@@ -8251,29 +8396,31 @@
       <c r="L141" s="44">
         <v>136</v>
       </c>
-      <c r="M141" s="32"/>
+      <c r="M141" s="63" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="142" spans="1:13" ht="30" customHeight="1">
       <c r="A142" s="39">
         <v>137</v>
       </c>
       <c r="B142" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C142" s="40" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="D142" s="40" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="E142" s="50" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F142" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="H142" s="32" t="s">
         <v>16</v>
@@ -8281,7 +8428,7 @@
       <c r="I142" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J142" s="43" t="s">
+      <c r="J142" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K142" s="32">
@@ -8290,29 +8437,31 @@
       <c r="L142" s="44">
         <v>137</v>
       </c>
-      <c r="M142" s="32"/>
+      <c r="M142" s="63" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="143" spans="1:13" ht="30" customHeight="1">
       <c r="A143" s="39">
         <v>138</v>
       </c>
       <c r="B143" s="50" t="s">
-        <v>401</v>
-      </c>
-      <c r="C143" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D143" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="E143" s="50" t="s">
-        <v>60</v>
+        <v>389</v>
+      </c>
+      <c r="C143" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="D143" s="66" t="s">
+        <v>635</v>
+      </c>
+      <c r="E143" s="65" t="s">
+        <v>125</v>
       </c>
       <c r="F143" s="32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="H143" s="32" t="s">
         <v>16</v>
@@ -8320,7 +8469,7 @@
       <c r="I143" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J143" s="43" t="s">
+      <c r="J143" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K143" s="32">
@@ -8329,29 +8478,31 @@
       <c r="L143" s="44">
         <v>138</v>
       </c>
-      <c r="M143" s="32"/>
+      <c r="M143" s="63" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="144" spans="1:13" ht="30" customHeight="1">
       <c r="A144" s="39">
         <v>139</v>
       </c>
       <c r="B144" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C144" s="40" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="D144" s="40" t="s">
-        <v>61</v>
+        <v>636</v>
       </c>
       <c r="E144" s="50" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="H144" s="32" t="s">
         <v>16</v>
@@ -8359,7 +8510,7 @@
       <c r="I144" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J144" s="43" t="s">
+      <c r="J144" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K144" s="32">
@@ -8368,29 +8519,31 @@
       <c r="L144" s="44">
         <v>139</v>
       </c>
-      <c r="M144" s="32"/>
+      <c r="M144" s="63" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="145" spans="1:13" ht="30" customHeight="1">
       <c r="A145" s="39">
         <v>140</v>
       </c>
       <c r="B145" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C145" s="40" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="D145" s="40" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="E145" s="50" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="F145" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="H145" s="32" t="s">
         <v>16</v>
@@ -8398,7 +8551,7 @@
       <c r="I145" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J145" s="43" t="s">
+      <c r="J145" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K145" s="32">
@@ -8414,22 +8567,22 @@
         <v>141</v>
       </c>
       <c r="B146" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C146" s="40" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="D146" s="40" t="s">
-        <v>65</v>
+        <v>637</v>
       </c>
       <c r="E146" s="50" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="F146" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
       <c r="H146" s="32" t="s">
         <v>16</v>
@@ -8437,7 +8590,7 @@
       <c r="I146" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J146" s="43" t="s">
+      <c r="J146" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K146" s="32">
@@ -8453,22 +8606,22 @@
         <v>142</v>
       </c>
       <c r="B147" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C147" s="40" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="D147" s="40" t="s">
-        <v>395</v>
+        <v>638</v>
       </c>
       <c r="E147" s="50" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="F147" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="H147" s="32" t="s">
         <v>16</v>
@@ -8476,7 +8629,7 @@
       <c r="I147" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J147" s="43" t="s">
+      <c r="J147" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K147" s="32">
@@ -8492,22 +8645,22 @@
         <v>143</v>
       </c>
       <c r="B148" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C148" s="40" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D148" s="40" t="s">
-        <v>384</v>
+        <v>130</v>
       </c>
       <c r="E148" s="50" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="F148" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="H148" s="32" t="s">
         <v>16</v>
@@ -8515,7 +8668,7 @@
       <c r="I148" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J148" s="43" t="s">
+      <c r="J148" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K148" s="32">
@@ -8531,22 +8684,22 @@
         <v>144</v>
       </c>
       <c r="B149" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C149" s="40" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="D149" s="40" t="s">
-        <v>385</v>
+        <v>639</v>
       </c>
       <c r="E149" s="50" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="F149" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="H149" s="32" t="s">
         <v>16</v>
@@ -8554,7 +8707,7 @@
       <c r="I149" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J149" s="43" t="s">
+      <c r="J149" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K149" s="32">
@@ -8570,22 +8723,22 @@
         <v>145</v>
       </c>
       <c r="B150" s="50" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C150" s="40" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="D150" s="40" t="s">
-        <v>150</v>
+        <v>385</v>
       </c>
       <c r="E150" s="50" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="F150" s="32" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="H150" s="32" t="s">
         <v>16</v>
@@ -8593,7 +8746,7 @@
       <c r="I150" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J150" s="43" t="s">
+      <c r="J150" s="67" t="s">
         <v>18</v>
       </c>
       <c r="K150" s="32">
@@ -8606,13 +8759,13 @@
     </row>
     <row r="151" spans="1:13" ht="30" customHeight="1">
       <c r="A151" s="55" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B151" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C151" s="36" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D151" s="35"/>
       <c r="E151" s="60"/>
@@ -8630,19 +8783,19 @@
         <v>146</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C152" s="40" t="s">
-        <v>142</v>
+        <v>642</v>
       </c>
       <c r="D152" s="40" t="s">
-        <v>134</v>
+        <v>642</v>
       </c>
       <c r="E152" s="50" t="s">
         <v>141</v>
       </c>
       <c r="F152" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G152" s="32" t="s">
         <v>141</v>
@@ -8669,19 +8822,19 @@
         <v>147</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C153" s="40" t="s">
-        <v>144</v>
+        <v>643</v>
       </c>
       <c r="D153" s="40" t="s">
-        <v>136</v>
+        <v>643</v>
       </c>
       <c r="E153" s="50" t="s">
         <v>143</v>
       </c>
       <c r="F153" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G153" s="32" t="s">
         <v>143</v>
@@ -8708,22 +8861,22 @@
         <v>148</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C154" s="40" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D154" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E154" s="50" t="s">
         <v>145</v>
       </c>
       <c r="F154" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H154" s="32" t="s">
         <v>16</v>
@@ -8747,22 +8900,22 @@
         <v>149</v>
       </c>
       <c r="B155" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D155" s="40" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E155" s="50" t="s">
         <v>147</v>
       </c>
       <c r="F155" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H155" s="32" t="s">
         <v>16</v>
@@ -8786,22 +8939,22 @@
         <v>150</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C156" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="D156" s="40" t="s">
-        <v>142</v>
+        <v>146</v>
+      </c>
+      <c r="D156" s="64" t="s">
+        <v>138</v>
       </c>
       <c r="E156" s="50" t="s">
         <v>149</v>
       </c>
       <c r="F156" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H156" s="32" t="s">
         <v>16</v>
@@ -8818,29 +8971,31 @@
       <c r="L156" s="44">
         <v>150</v>
       </c>
-      <c r="M156" s="32"/>
+      <c r="M156" s="32" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="157" spans="1:13" ht="30" customHeight="1">
       <c r="A157" s="39">
         <v>151</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="C157" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="D157" s="51" t="s">
-        <v>144</v>
+        <v>390</v>
+      </c>
+      <c r="C157" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D157" s="40" t="s">
+        <v>140</v>
       </c>
       <c r="E157" s="50" t="s">
         <v>151</v>
       </c>
       <c r="F157" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H157" s="32" t="s">
         <v>16</v>
@@ -8857,28 +9012,29 @@
       <c r="L157" s="44">
         <v>151</v>
       </c>
+      <c r="M157" s="32"/>
     </row>
     <row r="158" spans="1:13" ht="30" customHeight="1">
       <c r="A158" s="39">
         <v>152</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="C158" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="D158" s="51" t="s">
-        <v>146</v>
+        <v>390</v>
+      </c>
+      <c r="C158" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D158" s="40" t="s">
+        <v>142</v>
       </c>
       <c r="E158" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F158" s="32" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>396</v>
+        <v>149</v>
       </c>
       <c r="H158" s="32" t="s">
         <v>16</v>
@@ -8895,26 +9051,117 @@
       <c r="L158" s="44">
         <v>152</v>
       </c>
+      <c r="M158" s="32"/>
+    </row>
+    <row r="159" spans="1:13" ht="30" customHeight="1">
+      <c r="A159" s="39">
+        <v>153</v>
+      </c>
+      <c r="B159" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C159" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D159" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="F159" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="G159" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="H159" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J159" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K159" s="32">
+        <v>1</v>
+      </c>
+      <c r="L159" s="44">
+        <v>153</v>
+      </c>
+      <c r="M159" s="32" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="30" customHeight="1">
+      <c r="A160" s="39">
+        <v>154</v>
+      </c>
+      <c r="B160" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C160" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="D160" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="E160" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="F160" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="G160" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="H160" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J160" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K160" s="32">
+        <v>1</v>
+      </c>
+      <c r="L160" s="44">
+        <v>154</v>
+      </c>
+      <c r="M160" s="32" t="s">
+        <v>649</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L156" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L158" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="3" priority="360"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="366"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="duplicateValues" dxfId="2" priority="366"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="372"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J152:J158 J90:J106 J108:J150 J3:J88">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="J3:J88 J118:J150 J152:J160 J90:J116">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J108:J116">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J90:J106 J152:J158 J108:J150 J3:J88" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J88 J118:J150 J152:J160 J90:J116" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8925,10 +9172,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8939,31 +9186,31 @@
     <col min="4" max="4" width="44.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="17.21875" customWidth="1"/>
-    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="29.21875" customWidth="1"/>
-    <col min="15" max="15" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.33203125" customWidth="1"/>
-    <col min="18" max="18" width="29.21875" customWidth="1"/>
-    <col min="19" max="19" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="41" customWidth="1"/>
-    <col min="23" max="23" width="163.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.44140625" customWidth="1"/>
-    <col min="26" max="26" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="17" customWidth="1"/>
-    <col min="31" max="31" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="17.21875" customWidth="1"/>
+    <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="29.21875" customWidth="1"/>
+    <col min="16" max="16" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.33203125" customWidth="1"/>
+    <col min="19" max="19" width="29.21875" customWidth="1"/>
+    <col min="20" max="20" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="41" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="41" customWidth="1"/>
+    <col min="24" max="24" width="163.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.44140625" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="17" customWidth="1"/>
+    <col min="32" max="32" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="7" t="s">
         <v>152</v>
       </c>
@@ -8983,215 +9230,219 @@
         <v>157</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>419</v>
+        <v>652</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>640</v>
       </c>
       <c r="I1" s="56" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J1" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>607</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>608</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>601</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q1" s="61" t="s">
+        <v>605</v>
+      </c>
+      <c r="R1" s="61" t="s">
+        <v>609</v>
+      </c>
+      <c r="S1" s="61" t="s">
+        <v>590</v>
+      </c>
+      <c r="T1" s="61" t="s">
+        <v>591</v>
+      </c>
+      <c r="U1" s="61" t="s">
+        <v>594</v>
+      </c>
+      <c r="V1" s="61" t="s">
+        <v>596</v>
+      </c>
+      <c r="W1" s="61" t="s">
+        <v>598</v>
+      </c>
+      <c r="X1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="61" t="s">
+        <v>612</v>
+      </c>
+      <c r="Z1" s="61" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA1" s="61" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB1" s="61" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC1" s="61" t="s">
+        <v>617</v>
+      </c>
+      <c r="AD1" s="61" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE1" s="61" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF1" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG1" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="AH1" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI1" s="52" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>422</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="K1" s="56" t="s">
-        <v>590</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>609</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>610</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>603</v>
-      </c>
-      <c r="O1" s="61" t="s">
-        <v>605</v>
-      </c>
-      <c r="P1" s="61" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q1" s="61" t="s">
-        <v>611</v>
-      </c>
-      <c r="R1" s="61" t="s">
-        <v>592</v>
-      </c>
-      <c r="S1" s="61" t="s">
-        <v>593</v>
-      </c>
-      <c r="T1" s="61" t="s">
-        <v>596</v>
-      </c>
-      <c r="U1" s="61" t="s">
-        <v>598</v>
-      </c>
-      <c r="V1" s="61" t="s">
-        <v>600</v>
-      </c>
-      <c r="W1" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="X1" s="61" t="s">
-        <v>614</v>
-      </c>
-      <c r="Y1" s="61" t="s">
-        <v>625</v>
-      </c>
-      <c r="Z1" s="61" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA1" s="61" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB1" s="61" t="s">
-        <v>619</v>
-      </c>
-      <c r="AC1" s="61" t="s">
-        <v>621</v>
-      </c>
-      <c r="AD1" s="61" t="s">
-        <v>623</v>
-      </c>
-      <c r="AE1" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="AF1" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="AG1" s="52" t="s">
-        <v>404</v>
-      </c>
-      <c r="AH1" s="52" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="57" t="s">
+      <c r="D2" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F2" s="2">
         <v>1234</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>422</v>
-      </c>
+        <v>627</v>
+      </c>
+      <c r="H2" s="8"/>
       <c r="I2" s="46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J2" s="46" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>591</v>
-      </c>
-      <c r="L2" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>600</v>
+      </c>
+      <c r="N2" s="45" t="s">
+        <v>593</v>
+      </c>
+      <c r="O2" s="45" t="s">
         <v>602</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="P2" s="45" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q2" s="45" t="s">
+        <v>606</v>
+      </c>
+      <c r="R2" s="45" t="s">
+        <v>610</v>
+      </c>
+      <c r="S2" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="T2" s="45" t="s">
+        <v>592</v>
+      </c>
+      <c r="U2" s="45" t="s">
         <v>595</v>
       </c>
-      <c r="N2" s="45" t="s">
-        <v>604</v>
-      </c>
-      <c r="O2" s="45" t="s">
-        <v>606</v>
-      </c>
-      <c r="P2" s="45" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q2" s="45" t="s">
-        <v>612</v>
-      </c>
-      <c r="R2" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="S2" s="45" t="s">
-        <v>594</v>
-      </c>
-      <c r="T2" s="45" t="s">
+      <c r="V2" s="45" t="s">
         <v>597</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="W2" s="45" t="s">
         <v>599</v>
       </c>
-      <c r="V2" s="45" t="s">
-        <v>601</v>
-      </c>
-      <c r="W2" s="45" t="s">
+      <c r="X2" s="45" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y2" s="45" t="s">
         <v>613</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="Z2" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA2" s="45" t="s">
         <v>615</v>
       </c>
-      <c r="Y2" s="45" t="s">
-        <v>615</v>
-      </c>
-      <c r="Z2" s="45" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA2" s="45">
+      <c r="AB2" s="45">
         <v>3</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AC2" s="45" t="s">
+        <v>618</v>
+      </c>
+      <c r="AD2" s="45" t="s">
         <v>620</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AE2" s="45" t="s">
         <v>622</v>
       </c>
-      <c r="AD2" s="45" t="s">
+      <c r="AF2" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="AG2" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="AH2" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="AI2" s="54" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="AE2" s="53" t="s">
-        <v>406</v>
-      </c>
-      <c r="AF2" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="AG2" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="AH2" s="54" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="46" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F3" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>631</v>
-      </c>
-      <c r="H3" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>641</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -9214,10 +9465,11 @@
       <c r="AB3" s="8"/>
       <c r="AC3" s="8"/>
       <c r="AD3" s="8"/>
-      <c r="AE3" s="51"/>
+      <c r="AE3" s="8"/>
       <c r="AF3" s="51"/>
       <c r="AG3" s="51"/>
       <c r="AH3" s="51"/>
+      <c r="AI3" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -9248,28 +9500,28 @@
         <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>18</v>
@@ -9286,28 +9538,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>223</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>18</v>
@@ -9324,28 +9576,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="H3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J3" s="29" t="s">
         <v>18</v>
@@ -9362,28 +9614,28 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="H4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J4" s="29" t="s">
         <v>18</v>
@@ -9400,28 +9652,28 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="D5" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>235</v>
-      </c>
       <c r="G5" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="J5" s="20" t="s">
         <v>18</v>
@@ -9438,28 +9690,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="D6" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="G6" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>18</v>
@@ -9476,28 +9728,28 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="D7" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>241</v>
-      </c>
       <c r="G7" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="J7" s="20" t="s">
         <v>18</v>
@@ -9514,28 +9766,28 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>247</v>
-      </c>
       <c r="H8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>18</v>
@@ -9552,28 +9804,28 @@
         <v>47</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="E9" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>252</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J9" s="20" t="s">
         <v>18</v>
@@ -9590,28 +9842,28 @@
         <v>48</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>255</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J10" s="20" t="s">
         <v>18</v>
@@ -9628,28 +9880,28 @@
         <v>49</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="E11" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>258</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>18</v>
@@ -9666,28 +9918,28 @@
         <v>50</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>262</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>18</v>
@@ -9704,28 +9956,28 @@
         <v>51</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F13" s="16" t="s">
-        <v>266</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>18</v>
@@ -9742,28 +9994,28 @@
         <v>52</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>269</v>
-      </c>
       <c r="F14" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>18</v>
@@ -9780,28 +10032,28 @@
         <v>53</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>272</v>
-      </c>
       <c r="F15" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>18</v>
@@ -9818,28 +10070,28 @@
         <v>54</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D16" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="17" t="s">
-        <v>274</v>
-      </c>
       <c r="F16" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>18</v>
@@ -9856,28 +10108,28 @@
         <v>55</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>257</v>
-      </c>
       <c r="E17" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>276</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>18</v>
@@ -9894,28 +10146,28 @@
         <v>56</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="F18" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="18" t="s">
-        <v>280</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>18</v>
@@ -9932,28 +10184,28 @@
         <v>57</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="F19" s="18" t="s">
-        <v>284</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>18</v>
@@ -9970,28 +10222,28 @@
         <v>58</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E20" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>286</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J20" s="20" t="s">
         <v>18</v>
@@ -10008,28 +10260,28 @@
         <v>59</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E21" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>288</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>18</v>
@@ -10046,28 +10298,28 @@
         <v>60</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J22" s="20" t="s">
         <v>18</v>
@@ -10084,28 +10336,28 @@
         <v>14</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>292</v>
-      </c>
       <c r="F23" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J23" s="20" t="s">
         <v>18</v>
@@ -10122,28 +10374,28 @@
         <v>15</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F24" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J24" s="20" t="s">
         <v>18</v>
@@ -10160,28 +10412,28 @@
         <v>16</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E25" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="F25" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>18</v>
@@ -10198,28 +10450,28 @@
         <v>17</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>302</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J26" s="20" t="s">
         <v>18</v>
@@ -10236,28 +10488,28 @@
         <v>18</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="E27" s="20" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>18</v>
@@ -10274,28 +10526,28 @@
         <v>19</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E28" s="20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J28" s="20" t="s">
         <v>18</v>
@@ -10312,28 +10564,28 @@
         <v>20</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J29" s="20" t="s">
         <v>18</v>
@@ -10350,28 +10602,28 @@
         <v>21</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="20" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>308</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J30" s="20" t="s">
         <v>18</v>
@@ -10388,28 +10640,28 @@
         <v>22</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>18</v>
@@ -10426,28 +10678,28 @@
         <v>23</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E32" s="21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>18</v>
@@ -10464,28 +10716,28 @@
         <v>24</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J33" s="20" t="s">
         <v>18</v>
@@ -10502,28 +10754,28 @@
         <v>25</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>18</v>
@@ -10540,28 +10792,28 @@
         <v>26</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E35" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J35" s="20" t="s">
         <v>18</v>
@@ -10578,28 +10830,28 @@
         <v>27</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J36" s="20" t="s">
         <v>18</v>
@@ -10616,28 +10868,28 @@
         <v>28</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E37" s="23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J37" s="20" t="s">
         <v>18</v>
@@ -10654,28 +10906,28 @@
         <v>29</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E38" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>18</v>
@@ -10692,28 +10944,28 @@
         <v>30</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J39" s="20" t="s">
         <v>18</v>
@@ -10730,28 +10982,28 @@
         <v>31</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H40" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>18</v>
@@ -10768,28 +11020,28 @@
         <v>32</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E41" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J41" s="20" t="s">
         <v>18</v>
@@ -10806,28 +11058,28 @@
         <v>33</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J42" s="20" t="s">
         <v>18</v>
@@ -10840,48 +11092,48 @@
       </c>
     </row>
     <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2">
-      <c r="A43" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="65"/>
+      <c r="A43" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72"/>
     </row>
     <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A44" s="12">
         <v>27</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="F44" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J44" s="20" t="s">
         <v>18</v>
@@ -10898,28 +11150,28 @@
         <v>28</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E45" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I45" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J45" s="20" t="s">
         <v>18</v>
@@ -10936,28 +11188,28 @@
         <v>29</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E46" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J46" s="20" t="s">
         <v>18</v>
@@ -10974,28 +11226,28 @@
         <v>30</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="E47" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H47" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>18</v>
@@ -11012,28 +11264,28 @@
         <v>31</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>18</v>
@@ -11050,28 +11302,28 @@
         <v>32</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E49" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J49" s="20" t="s">
         <v>18</v>
@@ -11088,28 +11340,28 @@
         <v>33</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I50" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>18</v>
@@ -11126,28 +11378,28 @@
         <v>34</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="E51" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J51" s="20" t="s">
         <v>18</v>
@@ -11164,28 +11416,28 @@
         <v>35</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J52" s="20" t="s">
         <v>18</v>
@@ -11202,28 +11454,28 @@
         <v>36</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E53" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J53" s="20" t="s">
         <v>18</v>
@@ -11240,28 +11492,28 @@
         <v>37</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J54" s="20" t="s">
         <v>18</v>
@@ -11278,28 +11530,28 @@
         <v>38</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H55" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I55" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J55" s="20" t="s">
         <v>18</v>
@@ -11316,28 +11568,28 @@
         <v>39</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="E56" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J56" s="20" t="s">
         <v>18</v>
@@ -11354,28 +11606,28 @@
         <v>40</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="J57" s="20" t="s">
         <v>18</v>
@@ -11427,85 +11679,85 @@
         <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E1" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="48" t="s">
         <v>342</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="H1" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="I1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="F2" s="49" t="s">
         <v>353</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>354</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>356</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>358</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="8"/>
@@ -11513,23 +11765,23 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="8"/>
@@ -11537,57 +11789,57 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>361</v>
-      </c>
       <c r="F5" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="45" t="s">
+      <c r="D6" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>366</v>
-      </c>
       <c r="F6" s="49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="8"/>
@@ -11595,27 +11847,27 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>368</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E7" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="45" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="8"/>
@@ -11623,22 +11875,22 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>370</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -11649,28 +11901,28 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="G9" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>361</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>354</v>
-      </c>
-      <c r="G9" s="45" t="s">
+      <c r="H9" s="45" t="s">
         <v>372</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>373</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -11720,36 +11972,36 @@
         <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>156</v>
       </c>
       <c r="E1" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="47" t="s">
-        <v>375</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -11758,16 +12010,16 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -11776,16 +12028,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -11794,195 +12046,195 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="F5" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="F5" s="49" t="s">
-        <v>354</v>
-      </c>
       <c r="G5" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>358</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>361</v>
-      </c>
       <c r="F8" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>368</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>365</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>370</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F11" s="49" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G11" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="34" spans="1:10">
       <c r="F34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
@@ -11990,7 +12242,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="E35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
         <v>52</v>
@@ -11998,10 +12250,10 @@
     </row>
     <row r="36" spans="1:10">
       <c r="E36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -12009,10 +12261,10 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" t="s">
         <v>275</v>
-      </c>
-      <c r="F37" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -12020,10 +12272,10 @@
         <v>13</v>
       </c>
       <c r="E38" t="s">
+        <v>286</v>
+      </c>
+      <c r="F38" t="s">
         <v>287</v>
-      </c>
-      <c r="F38" t="s">
-        <v>288</v>
       </c>
       <c r="J38" t="s">
         <v>18</v>
@@ -12034,10 +12286,10 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" t="s">
         <v>285</v>
-      </c>
-      <c r="F39" t="s">
-        <v>286</v>
       </c>
       <c r="J39" t="s">
         <v>52</v>
@@ -12048,10 +12300,10 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
